--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2995846.754353566</v>
+        <v>3020131.198012718</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>674265.4147780372</v>
+        <v>674265.4147780369</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5803057.684246402</v>
+        <v>5803057.684246403</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>47.91244270874518</v>
+        <v>166.7343265896606</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -704,25 +704,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>231.5815766053055</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>200.7746664575921</v>
+        <v>110.6314422799187</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>186.9919489137622</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>142.4608998365542</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>28.9668523064813</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="H8" t="n">
-        <v>222.1008216780093</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>30.86155971440648</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>24.44194289836927</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>205.2385735638921</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>35.62628416352204</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>73.07730047273671</v>
       </c>
       <c r="T11" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>137.1028191302088</v>
@@ -1461,7 +1461,7 @@
         <v>30.82637861575624</v>
       </c>
       <c r="G12" t="n">
-        <v>23.10068338558301</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621018</v>
       </c>
       <c r="T12" t="n">
         <v>85.92189491719397</v>
@@ -1528,13 +1528,13 @@
         <v>65.58914640430966</v>
       </c>
       <c r="C13" t="n">
-        <v>52.08397059673972</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D13" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F13" t="n">
         <v>31.17821424530361</v>
@@ -1546,7 +1546,7 @@
         <v>47.98433872981194</v>
       </c>
       <c r="I13" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>109.7737642593446</v>
       </c>
       <c r="T13" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>18.27708090146694</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>149.5776425004272</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>211.6072823834167</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.6781032600253775</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.4781331754861</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>199.8847387377845</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.3734489850626</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>38.66566391751689</v>
       </c>
       <c r="C15" t="n">
-        <v>131.8186724896891</v>
+        <v>44.84097925596529</v>
       </c>
       <c r="D15" t="n">
         <v>19.57754583228831</v>
@@ -1701,13 +1701,13 @@
         <v>9.47599743086019</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>64.88547317490026</v>
       </c>
       <c r="S15" t="n">
         <v>43.81565137148738</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.98482735814447</v>
+        <v>51.96446044958685</v>
       </c>
       <c r="C16" t="n">
-        <v>39.37930136627739</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.74795328586191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>18.56644291421873</v>
@@ -1777,13 +1777,13 @@
         <v>17.5535282905808</v>
       </c>
       <c r="G16" t="n">
-        <v>40.12345962610831</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.35965277508913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>27.58295519490784</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>158.4515096241404</v>
       </c>
       <c r="V16" t="n">
-        <v>124.2701235914776</v>
+        <v>95.92454347184874</v>
       </c>
       <c r="W16" t="n">
         <v>158.6554786042406</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>97.84213565668671</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>90.71713361974435</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>246.070714909562</v>
       </c>
       <c r="F17" t="n">
-        <v>257.1616645430588</v>
+        <v>14.77744443009464</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.00946277844986</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>73.16041442354552</v>
       </c>
       <c r="T17" t="n">
         <v>87.23619440143153</v>
@@ -1901,13 +1901,13 @@
         <v>115.4859977451367</v>
       </c>
       <c r="V17" t="n">
-        <v>191.8926033074351</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>213.3813135547132</v>
       </c>
       <c r="X17" t="n">
-        <v>132.8352142069273</v>
+        <v>233.8714455157692</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>30.67352848716752</v>
       </c>
       <c r="C18" t="n">
-        <v>36.84884382561592</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>11.58541040193893</v>
@@ -1932,7 +1932,7 @@
         <v>21.78542529270112</v>
       </c>
       <c r="F18" t="n">
-        <v>116.875481403563</v>
+        <v>9.209557230684055</v>
       </c>
       <c r="G18" t="n">
         <v>1.483862000510811</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>35.823515941138</v>
       </c>
       <c r="T18" t="n">
         <v>64.30507353212178</v>
@@ -1989,7 +1989,7 @@
         <v>69.91333004077765</v>
       </c>
       <c r="Y18" t="n">
-        <v>69.82304061460454</v>
+        <v>187.5035747624537</v>
       </c>
     </row>
     <row r="19">
@@ -2053,13 +2053,13 @@
         <v>88.15694287427243</v>
       </c>
       <c r="T19" t="n">
-        <v>92.08593426558167</v>
+        <v>92.08593426558176</v>
       </c>
       <c r="U19" t="n">
         <v>150.4593741937911</v>
       </c>
       <c r="V19" t="n">
-        <v>116.2779881611284</v>
+        <v>116.2779881611282</v>
       </c>
       <c r="W19" t="n">
         <v>150.6633431738912</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>39.80654838932455</v>
       </c>
       <c r="C20" t="n">
         <v>229.4132366083077</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>218.8233864579831</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>246.070714909562</v>
       </c>
       <c r="F20" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.00946277844983</v>
+        <v>14.00946277844986</v>
       </c>
       <c r="S20" t="n">
-        <v>73.16041442354549</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>87.2361944014315</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>36.29068041424125</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>213.3813135547132</v>
       </c>
       <c r="X20" t="n">
         <v>233.8714455157692</v>
       </c>
       <c r="Y20" t="n">
-        <v>250.3782834933537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.67352848716749</v>
+        <v>30.67352848716752</v>
       </c>
       <c r="C21" t="n">
-        <v>104.5639903559346</v>
+        <v>36.84884382561592</v>
       </c>
       <c r="D21" t="n">
-        <v>11.5854104019389</v>
+        <v>11.58541040193893</v>
       </c>
       <c r="E21" t="n">
-        <v>21.78542529270109</v>
+        <v>155.2729937482307</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>1.483862000510811</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>35.82351594113797</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>64.30507353212175</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>90.08172691827497</v>
+        <v>90.081726918275</v>
       </c>
       <c r="V21" t="n">
-        <v>96.94093198672542</v>
+        <v>96.94093198672545</v>
       </c>
       <c r="W21" t="n">
         <v>115.8353279982198</v>
       </c>
       <c r="X21" t="n">
-        <v>69.91333004077762</v>
+        <v>69.91333004077765</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.82304061460451</v>
+        <v>69.82304061460454</v>
       </c>
     </row>
     <row r="22">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.97232501923745</v>
+        <v>43.97232501923747</v>
       </c>
       <c r="C22" t="n">
-        <v>31.38716593592798</v>
+        <v>31.38716593592801</v>
       </c>
       <c r="D22" t="n">
-        <v>12.7558178555125</v>
+        <v>12.75581785551253</v>
       </c>
       <c r="E22" t="n">
-        <v>10.57430748386932</v>
+        <v>10.57430748386935</v>
       </c>
       <c r="F22" t="n">
-        <v>9.561392860231393</v>
+        <v>9.561392860231422</v>
       </c>
       <c r="G22" t="n">
-        <v>32.13132419575891</v>
+        <v>32.13132419575894</v>
       </c>
       <c r="H22" t="n">
-        <v>26.36751734473972</v>
+        <v>26.36751734473975</v>
       </c>
       <c r="I22" t="n">
-        <v>19.59081976455843</v>
+        <v>19.59081976455846</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.43373621446963</v>
+        <v>41.43373621446966</v>
       </c>
       <c r="S22" t="n">
-        <v>88.1569428742724</v>
+        <v>88.15694287427243</v>
       </c>
       <c r="T22" t="n">
-        <v>92.08593426558164</v>
+        <v>92.08593426558167</v>
       </c>
       <c r="U22" t="n">
-        <v>150.459374193791</v>
+        <v>150.4593741937911</v>
       </c>
       <c r="V22" t="n">
-        <v>116.2779881611281</v>
+        <v>116.2779881611282</v>
       </c>
       <c r="W22" t="n">
-        <v>150.6633431738911</v>
+        <v>150.6633431738912</v>
       </c>
       <c r="X22" t="n">
-        <v>89.8500002263373</v>
+        <v>89.85000022633733</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.72499818939494</v>
+        <v>82.72499818939497</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>246.8741865007807</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8.525083381497542</v>
+        <v>229.4132366083077</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>218.8233864579831</v>
       </c>
       <c r="E23" t="n">
         <v>246.0707149095619</v>
@@ -2330,13 +2330,13 @@
         <v>271.0163905790116</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>279.4430823524352</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61623440770606</v>
+        <v>27.12015396803857</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.00946277844983</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.16041442354549</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>87.2361944014315</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>233.8714455157692</v>
       </c>
       <c r="Y23" t="n">
-        <v>250.3782834933537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>30.67352848716749</v>
       </c>
       <c r="C24" t="n">
-        <v>73.13974897004398</v>
+        <v>36.84884382561589</v>
       </c>
       <c r="D24" t="n">
         <v>11.5854104019389</v>
@@ -2406,19 +2406,19 @@
         <v>21.78542529270109</v>
       </c>
       <c r="F24" t="n">
-        <v>9.209557230684027</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>1.483862000510783</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>35.82351594113797</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>64.30507353212175</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>90.08172691827497</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.4545876702629</v>
       </c>
     </row>
     <row r="25">
@@ -2494,7 +2494,7 @@
         <v>26.36751734473972</v>
       </c>
       <c r="I25" t="n">
-        <v>19.59081976455843</v>
+        <v>19.59081976455844</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>271.8798389860704</v>
       </c>
       <c r="D26" t="n">
-        <v>261.2899888357458</v>
+        <v>102.3824879626168</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>288.5373172873246</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>56.4760651562125</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>115.132593466317</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>234.3592056851977</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>276.3380478935318</v>
       </c>
       <c r="Y26" t="n">
         <v>292.8448858711164</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.14013086493016</v>
+        <v>73.14013086493014</v>
       </c>
       <c r="C27" t="n">
-        <v>79.31544620337856</v>
+        <v>79.31544620337854</v>
       </c>
       <c r="D27" t="n">
-        <v>54.05201277970157</v>
+        <v>54.05201277970156</v>
       </c>
       <c r="E27" t="n">
-        <v>64.25202767046376</v>
+        <v>64.25202767046375</v>
       </c>
       <c r="F27" t="n">
-        <v>51.6761596084467</v>
+        <v>51.67615960844668</v>
       </c>
       <c r="G27" t="n">
-        <v>43.95046437827345</v>
+        <v>43.95046437827344</v>
       </c>
       <c r="H27" t="n">
-        <v>18.84239145155928</v>
+        <v>18.84239145155927</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.76478136770595</v>
+        <v>6.764781367705936</v>
       </c>
       <c r="S27" t="n">
-        <v>78.29011831890064</v>
+        <v>78.29011831890062</v>
       </c>
       <c r="T27" t="n">
         <v>106.7716759098844</v>
       </c>
       <c r="U27" t="n">
-        <v>132.5483292960377</v>
+        <v>132.5483292960376</v>
       </c>
       <c r="V27" t="n">
         <v>139.4075343644881</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.43892739700011</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.85376831369065</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>55.22242023327517</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>53.04090986163199</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>52.02799523799406</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>74.59792657352158</v>
+        <v>74.59792657352156</v>
       </c>
       <c r="H28" t="n">
-        <v>68.83411972250239</v>
+        <v>50.45249326159855</v>
       </c>
       <c r="I28" t="n">
-        <v>62.0574221423211</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>83.90033859223229</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>130.6235452520351</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>193.1299455516538</v>
       </c>
       <c r="X28" t="n">
-        <v>13.7557617860465</v>
+        <v>132.3166026041</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.1916005671576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>246.8741865007807</v>
       </c>
       <c r="C29" t="n">
-        <v>133.6547025100789</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>246.0707149095619</v>
       </c>
       <c r="F29" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>279.4430823524352</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>203.6151469530673</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>14.00946277844983</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>87.2361944014315</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>115.4859977451366</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16.65078535169657</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>250.3782834933537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>74.76446409128258</v>
       </c>
       <c r="C30" t="n">
         <v>36.84884382561589</v>
       </c>
       <c r="D30" t="n">
-        <v>11.5854104019389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>21.78542529270109</v>
@@ -2886,10 +2886,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>35.82351594113797</v>
       </c>
       <c r="T30" t="n">
-        <v>85.55719775115564</v>
+        <v>64.30507353212175</v>
       </c>
       <c r="U30" t="n">
         <v>90.08172691827497</v>
       </c>
       <c r="V30" t="n">
-        <v>96.94093198672542</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>115.8353279982198</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>69.91333004077762</v>
       </c>
       <c r="Y30" t="n">
         <v>69.82304061460451</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>246.2454517273554</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>25.1226976658431</v>
       </c>
       <c r="D32" t="n">
         <v>218.1946516845578</v>
       </c>
       <c r="E32" t="n">
-        <v>161.6845965715226</v>
+        <v>245.4419801361366</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>270.3876558055863</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>202.986412179642</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.38072800502454</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>114.8572629717114</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>191.2638685340098</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>233.2427107423439</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.7495487199284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>30.04479371374219</v>
       </c>
       <c r="C33" t="n">
-        <v>36.22010905219059</v>
+        <v>39.50663530584846</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>10.95667562851361</v>
       </c>
       <c r="E33" t="n">
         <v>21.1566905192758</v>
@@ -3165,7 +3165,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>99.59872346695818</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>115.2065932247945</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>246.2454517273554</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>218.1946516845578</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>270.3876558055863</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>278.8143475790099</v>
       </c>
       <c r="H35" t="n">
-        <v>202.986412179642</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.5316796501202</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>86.60745962800621</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>114.8572629717114</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>191.2638685340098</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.7525787812879</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>233.2427107423439</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13139474197709</v>
+        <v>194.7367424026118</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.04479371374219</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>36.22010905219059</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>10.95667562851361</v>
       </c>
       <c r="E36" t="n">
-        <v>24.44321677293378</v>
+        <v>21.1566905192758</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>8.580822457258733</v>
       </c>
       <c r="G36" t="n">
         <v>0.8551272270854895</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>35.19478116771268</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>90.46921938572488</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>89.45299214484967</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>96.31219721330012</v>
       </c>
       <c r="W36" t="n">
         <v>115.2065932247945</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>246.2454517273555</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>230.4351138685839</v>
+        <v>150.1791043822296</v>
       </c>
       <c r="F38" t="n">
         <v>270.3876558055863</v>
@@ -3518,7 +3518,7 @@
         <v>278.8143475790099</v>
       </c>
       <c r="H38" t="n">
-        <v>202.986412179642</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.7525787812879</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>249.7495487199285</v>
       </c>
     </row>
     <row r="39">
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.04479371374219</v>
+        <v>30.04479371374222</v>
       </c>
       <c r="C39" t="n">
-        <v>36.22010905219059</v>
+        <v>36.22010905219062</v>
       </c>
       <c r="D39" t="n">
-        <v>10.95667562851361</v>
+        <v>10.95667562851364</v>
       </c>
       <c r="E39" t="n">
-        <v>21.1566905192758</v>
+        <v>71.53497385764337</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>8.580822457258762</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8551272270854895</v>
+        <v>0.8551272270855179</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>63.67633875869646</v>
+        <v>63.67633875869649</v>
       </c>
       <c r="U39" t="n">
-        <v>91.99292707224983</v>
+        <v>89.4529921448497</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>96.31219721330015</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>115.2065932247945</v>
       </c>
       <c r="X39" t="n">
-        <v>69.28459526735233</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.19430584117922</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.34359024581215</v>
+        <v>43.34359024581218</v>
       </c>
       <c r="C40" t="n">
-        <v>30.75843116250269</v>
+        <v>30.75843116250272</v>
       </c>
       <c r="D40" t="n">
-        <v>12.12708308208721</v>
+        <v>12.12708308208724</v>
       </c>
       <c r="E40" t="n">
-        <v>9.945572710444026</v>
+        <v>9.945572710444054</v>
       </c>
       <c r="F40" t="n">
-        <v>8.9326580868061</v>
+        <v>8.932658086806128</v>
       </c>
       <c r="G40" t="n">
-        <v>31.50258942233361</v>
+        <v>31.50258942233364</v>
       </c>
       <c r="H40" t="n">
-        <v>25.73878257131443</v>
+        <v>25.73878257131446</v>
       </c>
       <c r="I40" t="n">
-        <v>18.96208499113314</v>
+        <v>18.96208499113317</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.80500144104434</v>
+        <v>40.80500144104437</v>
       </c>
       <c r="S40" t="n">
-        <v>87.52820810084711</v>
+        <v>87.52820810084714</v>
       </c>
       <c r="T40" t="n">
-        <v>91.45719949215635</v>
+        <v>91.45719949215638</v>
       </c>
       <c r="U40" t="n">
-        <v>149.8306394203657</v>
+        <v>149.8306394203658</v>
       </c>
       <c r="V40" t="n">
         <v>115.6492533877029</v>
@@ -3724,10 +3724,10 @@
         <v>150.0346084004659</v>
       </c>
       <c r="X40" t="n">
-        <v>89.22126545291201</v>
+        <v>89.22126545291204</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.09626341596964</v>
+        <v>82.09626341596967</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>291.8757402421734</v>
       </c>
       <c r="F41" t="n">
-        <v>274.1972486679728</v>
+        <v>291.8757402421734</v>
       </c>
       <c r="G41" t="n">
-        <v>291.8757402421734</v>
+        <v>274.1972486679726</v>
       </c>
       <c r="H41" t="n">
         <v>274.762643579507</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>291.8757402421734</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>107.9963404520556</v>
       </c>
       <c r="D42" t="n">
-        <v>56.51027369850356</v>
+        <v>82.73290702837862</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>92.93292191914081</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>72.6313586269505</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>106.9710125675777</v>
       </c>
       <c r="T42" t="n">
-        <v>135.4525701585615</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>161.2292235447147</v>
@@ -3879,7 +3879,7 @@
         <v>168.0884286131651</v>
       </c>
       <c r="W42" t="n">
-        <v>186.9828246246595</v>
+        <v>22.65214045519868</v>
       </c>
       <c r="X42" t="n">
         <v>141.0608266672173</v>
@@ -3898,7 +3898,7 @@
         <v>115.1198216456772</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.5346625623677</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>213.1223555722196</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>160.997496852777</v>
+        <v>117.7126950467942</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>153.8724948158347</v>
       </c>
     </row>
     <row r="44">
@@ -3977,73 +3977,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>200.3991993824707</v>
+      </c>
+      <c r="T44" t="n">
+        <v>214.4749793603567</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.328419150837846</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>208.9569664926042</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>38.42549577827378</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.9123134460926</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>164.087628784541</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>138.8241953608641</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>120.7352606181121</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>136.4483421896092</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>55.7519090023798</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>217.3205118772001</v>
       </c>
       <c r="V45" t="n">
-        <v>224.1797169456506</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>197.0618255735297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>172.766257954488</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>172.766257954488</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.45023277336662</v>
+        <v>214.4723377035842</v>
       </c>
       <c r="C2" t="n">
-        <v>94.45023277336662</v>
+        <v>214.4723377035842</v>
       </c>
       <c r="D2" t="n">
-        <v>94.45023277336662</v>
+        <v>214.4723377035842</v>
       </c>
       <c r="E2" t="n">
-        <v>94.45023277336662</v>
+        <v>214.4723377035842</v>
       </c>
       <c r="F2" t="n">
-        <v>46.05382599685633</v>
+        <v>46.05382599685632</v>
       </c>
       <c r="G2" t="n">
-        <v>30.59651537550779</v>
+        <v>30.59651537550778</v>
       </c>
       <c r="H2" t="n">
-        <v>30.59651537550779</v>
+        <v>30.59651537550778</v>
       </c>
       <c r="I2" t="n">
-        <v>30.59651537550779</v>
+        <v>30.59651537550778</v>
       </c>
       <c r="J2" t="n">
-        <v>18.52652612842444</v>
+        <v>18.52652612842443</v>
       </c>
       <c r="K2" t="n">
         <v>121.5415320393468</v>
       </c>
       <c r="L2" t="n">
-        <v>301.6173836240054</v>
+        <v>264.641151516379</v>
       </c>
       <c r="M2" t="n">
-        <v>518.5930108869095</v>
+        <v>481.6167787792832</v>
       </c>
       <c r="N2" t="n">
-        <v>687.4713009865229</v>
+        <v>687.4713009865225</v>
       </c>
       <c r="O2" t="n">
-        <v>836.666251129171</v>
+        <v>836.6662511291705</v>
       </c>
       <c r="P2" t="n">
-        <v>926.3263064212219</v>
+        <v>926.3263064212215</v>
       </c>
       <c r="Q2" t="n">
-        <v>916.2346910529949</v>
+        <v>916.2346910529944</v>
       </c>
       <c r="R2" t="n">
-        <v>764.8517436376922</v>
+        <v>916.2346910529944</v>
       </c>
       <c r="S2" t="n">
-        <v>553.7203602172423</v>
+        <v>916.2346910529944</v>
       </c>
       <c r="T2" t="n">
-        <v>328.3710172231702</v>
+        <v>916.2346910529944</v>
       </c>
       <c r="U2" t="n">
-        <v>94.45023277336662</v>
+        <v>916.2346910529944</v>
       </c>
       <c r="V2" t="n">
-        <v>94.45023277336662</v>
+        <v>682.3139066031911</v>
       </c>
       <c r="W2" t="n">
-        <v>94.45023277336662</v>
+        <v>448.3931221533877</v>
       </c>
       <c r="X2" t="n">
-        <v>94.45023277336662</v>
+        <v>214.4723377035842</v>
       </c>
       <c r="Y2" t="n">
-        <v>94.45023277336662</v>
+        <v>214.4723377035842</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="D3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="E3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="F3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="G3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="H3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="I3" t="n">
-        <v>18.52652612842444</v>
+        <v>19.28065878121014</v>
       </c>
       <c r="J3" t="n">
-        <v>18.52652612842444</v>
+        <v>18.52652612842443</v>
       </c>
       <c r="K3" t="n">
         <v>143.8840861862618</v>
       </c>
       <c r="L3" t="n">
-        <v>373.1498470255143</v>
+        <v>285.151307129366</v>
       </c>
       <c r="M3" t="n">
-        <v>602.4156078647668</v>
+        <v>514.4170679686183</v>
       </c>
       <c r="N3" t="n">
-        <v>674.2882702945417</v>
+        <v>743.6828288078707</v>
       </c>
       <c r="O3" t="n">
-        <v>674.2882702945417</v>
+        <v>743.6828288078707</v>
       </c>
       <c r="P3" t="n">
-        <v>856.9317479078926</v>
+        <v>926.3263064212215</v>
       </c>
       <c r="Q3" t="n">
-        <v>926.3263064212219</v>
+        <v>926.3263064212215</v>
       </c>
       <c r="R3" t="n">
-        <v>825.1567769741076</v>
+        <v>825.1567769741072</v>
       </c>
       <c r="S3" t="n">
-        <v>651.7394324247765</v>
+        <v>651.7394324247761</v>
       </c>
       <c r="T3" t="n">
-        <v>449.5528377835425</v>
+        <v>449.5528377835421</v>
       </c>
       <c r="U3" t="n">
-        <v>221.3292195199316</v>
+        <v>221.3292195199311</v>
       </c>
       <c r="V3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="W3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="X3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.52652612842444</v>
+        <v>109.5802879240537</v>
       </c>
     </row>
     <row r="4">
@@ -4474,28 +4474,28 @@
         <v>153.0588166186952</v>
       </c>
       <c r="F4" t="n">
-        <v>153.0588166186952</v>
+        <v>41.02096231618489</v>
       </c>
       <c r="G4" t="n">
-        <v>18.52652612842444</v>
+        <v>41.02096231618489</v>
       </c>
       <c r="H4" t="n">
-        <v>18.52652612842444</v>
+        <v>41.02096231618489</v>
       </c>
       <c r="I4" t="n">
-        <v>18.52652612842444</v>
+        <v>41.02096231618489</v>
       </c>
       <c r="J4" t="n">
-        <v>18.52652612842444</v>
+        <v>41.02096231618489</v>
       </c>
       <c r="K4" t="n">
-        <v>18.52652612842444</v>
+        <v>18.52652612842443</v>
       </c>
       <c r="L4" t="n">
-        <v>45.84065113613742</v>
+        <v>45.84065113613741</v>
       </c>
       <c r="M4" t="n">
-        <v>85.0286893283596</v>
+        <v>85.02868932835959</v>
       </c>
       <c r="N4" t="n">
         <v>128.7195399837959</v>
@@ -4544,25 +4544,25 @@
         <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284.0338015341832</v>
+        <v>718.9877272387197</v>
       </c>
       <c r="C6" t="n">
-        <v>109.5807722530562</v>
+        <v>544.5346979575927</v>
       </c>
       <c r="D6" t="n">
-        <v>109.5807722530562</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E6" t="n">
-        <v>109.5807722530562</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>934.7977087364127</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>934.7977087364127</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>699.64560050467</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>699.64560050467</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>491.7941002991371</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>284.0338015341832</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4753,19 +4753,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.0282188019862</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>266.0282188019862</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D8" t="n">
-        <v>266.0282188019862</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E8" t="n">
-        <v>266.0282188019862</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F8" t="n">
-        <v>259.0827180527828</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G8" t="n">
-        <v>243.6254074314342</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>509.4769954460863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.0282188019862</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4893,13 +4893,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>227.8867759685313</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="10">
@@ -4981,25 +4981,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>226.5928335787906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5039,7 +5039,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K11" t="n">
         <v>122.2961490211351</v>
@@ -5066,25 +5066,25 @@
         <v>928.071009890917</v>
       </c>
       <c r="S11" t="n">
-        <v>928.071009890917</v>
+        <v>854.2555548679507</v>
       </c>
       <c r="T11" t="n">
-        <v>818.1184686924285</v>
+        <v>854.2555548679507</v>
       </c>
       <c r="U11" t="n">
-        <v>679.6307726013084</v>
+        <v>715.7678587768306</v>
       </c>
       <c r="V11" t="n">
-        <v>463.9646870533213</v>
+        <v>500.1017732288435</v>
       </c>
       <c r="W11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>226.5928335787906</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>73.7529229095453</v>
       </c>
       <c r="F12" t="n">
-        <v>42.61516673201375</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5124,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5160,7 +5160,7 @@
         <v>447.824142074433</v>
       </c>
       <c r="X12" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644836</v>
       </c>
       <c r="Y12" t="n">
         <v>263.0059466951132</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>282.4881628505175</v>
+        <v>239.5900468939384</v>
       </c>
       <c r="C13" t="n">
-        <v>229.8780915406794</v>
+        <v>186.0506657616149</v>
       </c>
       <c r="D13" t="n">
-        <v>195.1582539239272</v>
+        <v>186.0506657616149</v>
       </c>
       <c r="E13" t="n">
-        <v>195.1582539239272</v>
+        <v>153.5343739748053</v>
       </c>
       <c r="F13" t="n">
-        <v>163.6651082216003</v>
+        <v>122.0412282724784</v>
       </c>
       <c r="G13" t="n">
-        <v>109.3740520793467</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="H13" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5227,22 +5227,22 @@
         <v>681.5796206695481</v>
       </c>
       <c r="T13" t="n">
-        <v>566.7283523355543</v>
+        <v>681.5796206695481</v>
       </c>
       <c r="U13" t="n">
-        <v>566.7283523355543</v>
+        <v>663.1179227892785</v>
       </c>
       <c r="V13" t="n">
-        <v>566.7283523355543</v>
+        <v>523.8302363789751</v>
       </c>
       <c r="W13" t="n">
-        <v>566.7283523355543</v>
+        <v>523.8302363789751</v>
       </c>
       <c r="X13" t="n">
-        <v>454.1356032331204</v>
+        <v>411.2374872765412</v>
       </c>
       <c r="Y13" t="n">
-        <v>348.7398258851738</v>
+        <v>305.8417099285946</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.369670888422</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="C14" t="n">
-        <v>170.369670888422</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>719.9234260786318</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>476.4746494345317</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.0258727904316</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5303,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="U14" t="n">
-        <v>839.3317684646908</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="V14" t="n">
-        <v>637.4279919618782</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="W14" t="n">
-        <v>413.8184475325221</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="X14" t="n">
-        <v>170.369670888422</v>
+        <v>963.3722027227318</v>
       </c>
       <c r="Y14" t="n">
-        <v>170.369670888422</v>
+        <v>963.3722027227318</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>320.2858838320254</v>
+        <v>254.7450018371766</v>
       </c>
       <c r="C15" t="n">
-        <v>187.1357096000162</v>
+        <v>209.4510833968076</v>
       </c>
       <c r="D15" t="n">
-        <v>167.3604107795229</v>
+        <v>189.6757845763143</v>
       </c>
       <c r="E15" t="n">
-        <v>137.2820666148254</v>
+        <v>159.5974404116168</v>
       </c>
       <c r="F15" t="n">
-        <v>119.9066194824684</v>
+        <v>142.2219932792598</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,13 +5361,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
         <v>894.6625969973069</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>898.5162735157875</v>
       </c>
       <c r="S15" t="n">
-        <v>919.7989218020631</v>
+        <v>854.2580398072143</v>
       </c>
       <c r="T15" t="n">
-        <v>846.7714380015872</v>
+        <v>781.2305560067384</v>
       </c>
       <c r="U15" t="n">
-        <v>747.7069305787343</v>
+        <v>682.1660485838855</v>
       </c>
       <c r="V15" t="n">
-        <v>641.7139331877496</v>
+        <v>576.1730511929009</v>
       </c>
       <c r="W15" t="n">
-        <v>516.635687300306</v>
+        <v>451.0948053054572</v>
       </c>
       <c r="X15" t="n">
-        <v>437.9432979355312</v>
+        <v>372.4024159406824</v>
       </c>
       <c r="Y15" t="n">
-        <v>359.3421100113354</v>
+        <v>293.8012280164866</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>219.5976011435906</v>
+        <v>55.76596250900013</v>
       </c>
       <c r="C16" t="n">
-        <v>179.8205290564417</v>
+        <v>55.76596250900013</v>
       </c>
       <c r="D16" t="n">
-        <v>158.863000484864</v>
+        <v>55.76596250900013</v>
       </c>
       <c r="E16" t="n">
-        <v>140.109017743229</v>
+        <v>37.01197976736505</v>
       </c>
       <c r="F16" t="n">
-        <v>122.3781810860767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>81.84943398899755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>47.14271401416003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5470,16 +5470,16 @@
         <v>555.8707623091084</v>
       </c>
       <c r="V16" t="n">
-        <v>430.3453849439795</v>
+        <v>458.9772840547157</v>
       </c>
       <c r="W16" t="n">
-        <v>270.087325747777</v>
+        <v>298.7192248585131</v>
       </c>
       <c r="X16" t="n">
-        <v>270.087325747777</v>
+        <v>199.8887848012538</v>
       </c>
       <c r="Y16" t="n">
-        <v>270.087325747777</v>
+        <v>108.2553164984818</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>280.3321902776455</v>
+        <v>284.0559223954211</v>
       </c>
       <c r="C17" t="n">
-        <v>280.3321902776455</v>
+        <v>284.0559223954211</v>
       </c>
       <c r="D17" t="n">
-        <v>280.3321902776455</v>
+        <v>284.0559223954211</v>
       </c>
       <c r="E17" t="n">
-        <v>280.3321902776455</v>
+        <v>35.49964470899485</v>
       </c>
       <c r="F17" t="n">
         <v>20.57293316344471</v>
@@ -5537,28 +5537,28 @@
         <v>1028.646658172235</v>
       </c>
       <c r="R17" t="n">
-        <v>1028.646658172235</v>
+        <v>1014.495685668751</v>
       </c>
       <c r="S17" t="n">
-        <v>1028.646658172235</v>
+        <v>940.5962771601187</v>
       </c>
       <c r="T17" t="n">
-        <v>940.5292900899811</v>
+        <v>852.4789090778646</v>
       </c>
       <c r="U17" t="n">
-        <v>823.8767671150956</v>
+        <v>735.8263861029791</v>
       </c>
       <c r="V17" t="n">
-        <v>630.045854683343</v>
+        <v>735.8263861029791</v>
       </c>
       <c r="W17" t="n">
-        <v>414.5091743250468</v>
+        <v>520.2897057446829</v>
       </c>
       <c r="X17" t="n">
-        <v>280.3321902776455</v>
+        <v>284.0559223954211</v>
       </c>
       <c r="Y17" t="n">
-        <v>280.3321902776455</v>
+        <v>284.0559223954211</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>211.0567947031718</v>
+        <v>330.5890726501352</v>
       </c>
       <c r="C18" t="n">
-        <v>173.8357403338628</v>
+        <v>156.1360433690082</v>
       </c>
       <c r="D18" t="n">
-        <v>162.1333055844295</v>
+        <v>144.4336086195749</v>
       </c>
       <c r="E18" t="n">
-        <v>140.127825490792</v>
+        <v>122.4281285259374</v>
       </c>
       <c r="F18" t="n">
-        <v>22.07178366901118</v>
+        <v>113.1255454646404</v>
       </c>
       <c r="G18" t="n">
-        <v>20.57293316344471</v>
+        <v>111.6266949590739</v>
       </c>
       <c r="H18" t="n">
-        <v>20.57293316344471</v>
+        <v>111.6266949590739</v>
       </c>
       <c r="I18" t="n">
-        <v>20.57293316344471</v>
+        <v>21.32706581623042</v>
       </c>
       <c r="J18" t="n">
         <v>20.57293316344471</v>
       </c>
       <c r="K18" t="n">
-        <v>20.57293316344471</v>
+        <v>145.9304932212821</v>
       </c>
       <c r="L18" t="n">
-        <v>250.5360390317938</v>
+        <v>375.8935990896313</v>
       </c>
       <c r="M18" t="n">
-        <v>455.9086376773155</v>
+        <v>630.4836469872595</v>
       </c>
       <c r="N18" t="n">
-        <v>710.4986855749437</v>
+        <v>885.0736948848877</v>
       </c>
       <c r="O18" t="n">
         <v>959.2520996589059</v>
@@ -5616,28 +5616,28 @@
         <v>1028.646658172235</v>
       </c>
       <c r="R18" t="n">
-        <v>927.4771287251209</v>
+        <v>1028.646658172235</v>
       </c>
       <c r="S18" t="n">
-        <v>754.0597841757898</v>
+        <v>992.4612885347221</v>
       </c>
       <c r="T18" t="n">
-        <v>689.1051644463738</v>
+        <v>927.5066688053062</v>
       </c>
       <c r="U18" t="n">
-        <v>598.1135210945808</v>
+        <v>836.5150254535132</v>
       </c>
       <c r="V18" t="n">
-        <v>500.1933877746561</v>
+        <v>738.5948921335885</v>
       </c>
       <c r="W18" t="n">
-        <v>383.1880059582725</v>
+        <v>621.5895103172048</v>
       </c>
       <c r="X18" t="n">
-        <v>312.5684806645577</v>
+        <v>550.96998502349</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.0401568114218</v>
+        <v>361.5724347583853</v>
       </c>
     </row>
     <row r="19">
@@ -5671,7 +5671,7 @@
         <v>20.57293316344471</v>
       </c>
       <c r="J19" t="n">
-        <v>62.64840345901155</v>
+        <v>62.6484034590115</v>
       </c>
       <c r="K19" t="n">
         <v>175.1026651624603</v>
@@ -5686,7 +5686,7 @@
         <v>688.7988548510502</v>
       </c>
       <c r="O19" t="n">
-        <v>847.6391900970224</v>
+        <v>847.6391900970223</v>
       </c>
       <c r="P19" t="n">
         <v>979.4460223803399</v>
@@ -5701,10 +5701,10 @@
         <v>897.746982325021</v>
       </c>
       <c r="T19" t="n">
-        <v>804.7308871072618</v>
+        <v>804.7308871072617</v>
       </c>
       <c r="U19" t="n">
-        <v>652.7517212549476</v>
+        <v>652.7517212549474</v>
       </c>
       <c r="V19" t="n">
         <v>535.2992079608784</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>530.126321178989</v>
+        <v>725.9623926825582</v>
       </c>
       <c r="C20" t="n">
-        <v>298.3957791503954</v>
+        <v>494.2318506539646</v>
       </c>
       <c r="D20" t="n">
-        <v>298.3957791503954</v>
+        <v>273.1981269590321</v>
       </c>
       <c r="E20" t="n">
-        <v>298.3957791503954</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="F20" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="G20" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="H20" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="I20" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J20" t="n">
         <v>147.3131114226123</v>
       </c>
       <c r="K20" t="n">
-        <v>265.7211907521182</v>
+        <v>265.721190752118</v>
       </c>
       <c r="L20" t="n">
-        <v>445.7970423367768</v>
+        <v>445.7970423367766</v>
       </c>
       <c r="M20" t="n">
-        <v>662.772669599681</v>
+        <v>662.7726695996807</v>
       </c>
       <c r="N20" t="n">
-        <v>868.6271918069203</v>
+        <v>868.6271918069201</v>
       </c>
       <c r="O20" t="n">
         <v>1017.822141949568</v>
@@ -5777,25 +5777,25 @@
         <v>1217.941491126808</v>
       </c>
       <c r="S20" t="n">
-        <v>1144.042082618176</v>
+        <v>1217.941491126808</v>
       </c>
       <c r="T20" t="n">
-        <v>1055.924714535922</v>
+        <v>1217.941491126808</v>
       </c>
       <c r="U20" t="n">
-        <v>1019.267461592244</v>
+        <v>1217.941491126808</v>
       </c>
       <c r="V20" t="n">
-        <v>1019.267461592244</v>
+        <v>1217.941491126808</v>
       </c>
       <c r="W20" t="n">
-        <v>1019.267461592244</v>
+        <v>1002.404810768512</v>
       </c>
       <c r="X20" t="n">
-        <v>783.0336782429827</v>
+        <v>766.1710274192496</v>
       </c>
       <c r="Y20" t="n">
-        <v>530.126321178989</v>
+        <v>766.1710274192496</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>652.9041045201622</v>
+        <v>378.4401546965253</v>
       </c>
       <c r="C21" t="n">
-        <v>547.2839122414404</v>
+        <v>341.2191003272163</v>
       </c>
       <c r="D21" t="n">
-        <v>535.5814774920071</v>
+        <v>329.516665577783</v>
       </c>
       <c r="E21" t="n">
-        <v>513.5759973983696</v>
+        <v>172.6752577512873</v>
       </c>
       <c r="F21" t="n">
-        <v>367.0414394252546</v>
+        <v>26.14069977817233</v>
       </c>
       <c r="G21" t="n">
-        <v>228.31061400787</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9414784154494</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="I21" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J21" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="K21" t="n">
         <v>149.9994093304433</v>
       </c>
       <c r="L21" t="n">
-        <v>379.9625151987924</v>
+        <v>149.9994093304433</v>
       </c>
       <c r="M21" t="n">
-        <v>684.9053999472899</v>
+        <v>426.3581286711528</v>
       </c>
       <c r="N21" t="n">
-        <v>989.8482846957874</v>
+        <v>731.3010134196502</v>
       </c>
       <c r="O21" t="n">
-        <v>1232.092463630293</v>
+        <v>980.0544275036125</v>
       </c>
       <c r="P21" t="n">
-        <v>1232.092463630293</v>
+        <v>1162.697905116963</v>
       </c>
       <c r="Q21" t="n">
         <v>1232.092463630293</v>
@@ -5856,25 +5856,25 @@
         <v>1232.092463630293</v>
       </c>
       <c r="S21" t="n">
-        <v>1195.90709399278</v>
+        <v>1058.675119080961</v>
       </c>
       <c r="T21" t="n">
-        <v>1130.952474263364</v>
+        <v>856.4885244397274</v>
       </c>
       <c r="U21" t="n">
-        <v>1039.960830911571</v>
+        <v>765.4968810879344</v>
       </c>
       <c r="V21" t="n">
-        <v>942.0406975916462</v>
+        <v>667.5767477680097</v>
       </c>
       <c r="W21" t="n">
-        <v>825.0353157752627</v>
+        <v>550.571365951626</v>
       </c>
       <c r="X21" t="n">
-        <v>754.4157904815479</v>
+        <v>479.9518406579112</v>
       </c>
       <c r="Y21" t="n">
-        <v>683.8874666284121</v>
+        <v>409.4235168047753</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.4482588085632</v>
+        <v>168.4482588085637</v>
       </c>
       <c r="C22" t="n">
-        <v>136.7440507924744</v>
+        <v>136.7440507924748</v>
       </c>
       <c r="D22" t="n">
-        <v>123.8593862919567</v>
+        <v>123.8593862919571</v>
       </c>
       <c r="E22" t="n">
-        <v>113.1782676213816</v>
+        <v>113.178267621382</v>
       </c>
       <c r="F22" t="n">
-        <v>103.5202950352893</v>
+        <v>103.5202950352897</v>
       </c>
       <c r="G22" t="n">
-        <v>71.06441200927038</v>
+        <v>71.06441200927043</v>
       </c>
       <c r="H22" t="n">
-        <v>44.43055610549318</v>
+        <v>44.430556105493</v>
       </c>
       <c r="I22" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J22" t="n">
-        <v>66.7173195681723</v>
+        <v>66.71731956817264</v>
       </c>
       <c r="K22" t="n">
-        <v>179.1715812716208</v>
+        <v>179.1715812716214</v>
       </c>
       <c r="L22" t="n">
-        <v>340.9867648904067</v>
+        <v>340.9867648904072</v>
       </c>
       <c r="M22" t="n">
-        <v>514.6758616937018</v>
+        <v>514.6758616937022</v>
       </c>
       <c r="N22" t="n">
         <v>692.8677709602109</v>
@@ -5926,34 +5926,34 @@
         <v>851.7081062061829</v>
       </c>
       <c r="P22" t="n">
-        <v>983.5149384895004</v>
+        <v>983.5149384895003</v>
       </c>
       <c r="Q22" t="n">
         <v>1032.715574281396</v>
       </c>
       <c r="R22" t="n">
-        <v>990.8633154789013</v>
+        <v>990.8633154789011</v>
       </c>
       <c r="S22" t="n">
         <v>901.8158984341817</v>
       </c>
       <c r="T22" t="n">
-        <v>808.7998032164223</v>
+        <v>808.7998032164226</v>
       </c>
       <c r="U22" t="n">
-        <v>656.8206373641082</v>
+        <v>656.8206373641083</v>
       </c>
       <c r="V22" t="n">
-        <v>539.3681240700391</v>
+        <v>539.3681240700396</v>
       </c>
       <c r="W22" t="n">
-        <v>387.1829289448965</v>
+        <v>387.182928944897</v>
       </c>
       <c r="X22" t="n">
-        <v>296.4253529586972</v>
+        <v>296.4253529586975</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.8647487269849</v>
+        <v>212.8647487269854</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>637.3315017728754</v>
+        <v>1315.774473083543</v>
       </c>
       <c r="C23" t="n">
-        <v>628.7203064380294</v>
+        <v>1084.04393105495</v>
       </c>
       <c r="D23" t="n">
-        <v>628.7203064380294</v>
+        <v>863.0102073600171</v>
       </c>
       <c r="E23" t="n">
-        <v>380.1640287516033</v>
+        <v>614.4539296735909</v>
       </c>
       <c r="F23" t="n">
-        <v>106.4100988738137</v>
+        <v>340.6999997958014</v>
       </c>
       <c r="G23" t="n">
-        <v>106.4100988738137</v>
+        <v>58.43426004586678</v>
       </c>
       <c r="H23" t="n">
-        <v>106.4100988738137</v>
+        <v>58.43426004586678</v>
       </c>
       <c r="I23" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J23" t="n">
-        <v>79.11880181048932</v>
+        <v>153.7114272786625</v>
       </c>
       <c r="K23" t="n">
-        <v>182.1338077214117</v>
+        <v>391.2274918006577</v>
       </c>
       <c r="L23" t="n">
-        <v>362.2096593060703</v>
+        <v>705.8044019963891</v>
       </c>
       <c r="M23" t="n">
-        <v>713.6863451800473</v>
+        <v>922.7800292592932</v>
       </c>
       <c r="N23" t="n">
-        <v>919.5408673872867</v>
+        <v>1128.634551466532</v>
       </c>
       <c r="O23" t="n">
-        <v>1203.236876141008</v>
+        <v>1277.829501609181</v>
       </c>
       <c r="P23" t="n">
         <v>1427.397990044131</v>
@@ -6011,28 +6011,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R23" t="n">
-        <v>1537.85728392932</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S23" t="n">
-        <v>1463.957875420689</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="T23" t="n">
-        <v>1375.840507338435</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="U23" t="n">
-        <v>1375.840507338435</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="V23" t="n">
-        <v>1375.840507338435</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="W23" t="n">
-        <v>1375.840507338435</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="X23" t="n">
-        <v>1139.606723989173</v>
+        <v>1315.774473083543</v>
       </c>
       <c r="Y23" t="n">
-        <v>886.6993669251792</v>
+        <v>1315.774473083543</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>149.428047851766</v>
+        <v>454.4254402077672</v>
       </c>
       <c r="C24" t="n">
-        <v>75.54951353859025</v>
+        <v>417.2043858384582</v>
       </c>
       <c r="D24" t="n">
-        <v>63.84707878915701</v>
+        <v>405.5019510890249</v>
       </c>
       <c r="E24" t="n">
-        <v>41.84159869551954</v>
+        <v>383.4964709953875</v>
       </c>
       <c r="F24" t="n">
-        <v>32.53901563422254</v>
+        <v>236.9619130222725</v>
       </c>
       <c r="G24" t="n">
-        <v>31.0401651286561</v>
+        <v>235.463062516706</v>
       </c>
       <c r="H24" t="n">
-        <v>31.0401651286561</v>
+        <v>122.0939269242853</v>
       </c>
       <c r="I24" t="n">
-        <v>31.0401651286561</v>
+        <v>31.79429778144181</v>
       </c>
       <c r="J24" t="n">
         <v>31.0401651286561</v>
@@ -6096,22 +6096,22 @@
         <v>1515.822886795292</v>
       </c>
       <c r="T24" t="n">
-        <v>1313.636292154058</v>
+        <v>1450.868267065876</v>
       </c>
       <c r="U24" t="n">
-        <v>1085.412673890447</v>
+        <v>1359.876623714083</v>
       </c>
       <c r="V24" t="n">
-        <v>850.2605656587043</v>
+        <v>1124.72451548234</v>
       </c>
       <c r="W24" t="n">
-        <v>596.0232089305027</v>
+        <v>870.4871587541388</v>
       </c>
       <c r="X24" t="n">
-        <v>388.1717087249699</v>
+        <v>662.635658548606</v>
       </c>
       <c r="Y24" t="n">
-        <v>180.411409960016</v>
+        <v>485.4088023160172</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174.846574664614</v>
+        <v>174.8465746646141</v>
       </c>
       <c r="C25" t="n">
-        <v>143.1423666485251</v>
+        <v>143.1423666485252</v>
       </c>
       <c r="D25" t="n">
-        <v>130.2577021480074</v>
+        <v>130.2577021480075</v>
       </c>
       <c r="E25" t="n">
-        <v>119.5765834774323</v>
+        <v>119.5765834774324</v>
       </c>
       <c r="F25" t="n">
-        <v>109.91861089134</v>
+        <v>109.9186108913401</v>
       </c>
       <c r="G25" t="n">
-        <v>77.46272786532091</v>
+        <v>77.46272786532086</v>
       </c>
       <c r="H25" t="n">
         <v>50.82887196154341</v>
@@ -6148,49 +6148,49 @@
         <v>73.11563542422292</v>
       </c>
       <c r="K25" t="n">
-        <v>185.5698971276717</v>
+        <v>185.5698971276718</v>
       </c>
       <c r="L25" t="n">
-        <v>347.3850807464576</v>
+        <v>347.3850807464569</v>
       </c>
       <c r="M25" t="n">
-        <v>521.0741775497526</v>
+        <v>521.0741775497522</v>
       </c>
       <c r="N25" t="n">
-        <v>699.2660868162617</v>
+        <v>699.2660868162612</v>
       </c>
       <c r="O25" t="n">
-        <v>858.1064220622332</v>
+        <v>858.1064220622334</v>
       </c>
       <c r="P25" t="n">
-        <v>989.9132543455505</v>
+        <v>989.9132543455507</v>
       </c>
       <c r="Q25" t="n">
         <v>1039.113890137446</v>
       </c>
       <c r="R25" t="n">
-        <v>997.2616313349514</v>
+        <v>997.2616313349508</v>
       </c>
       <c r="S25" t="n">
-        <v>908.2142142902318</v>
+        <v>908.2142142902314</v>
       </c>
       <c r="T25" t="n">
-        <v>815.1981190724725</v>
+        <v>815.1981190724723</v>
       </c>
       <c r="U25" t="n">
-        <v>663.2189532201584</v>
+        <v>663.2189532201583</v>
       </c>
       <c r="V25" t="n">
         <v>545.7664399260896</v>
       </c>
       <c r="W25" t="n">
-        <v>393.581244800947</v>
+        <v>393.5812448009472</v>
       </c>
       <c r="X25" t="n">
-        <v>302.8236688147477</v>
+        <v>302.8236688147479</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.2630645830356</v>
+        <v>219.2630645830357</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>563.9518478925922</v>
+        <v>694.8910563917798</v>
       </c>
       <c r="C26" t="n">
-        <v>289.3257479066626</v>
+        <v>420.2649564058501</v>
       </c>
       <c r="D26" t="n">
-        <v>25.39646625439414</v>
+        <v>316.8483018981564</v>
       </c>
       <c r="E26" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="F26" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="G26" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="H26" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="I26" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="J26" t="n">
-        <v>57.56072577041971</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="K26" t="n">
-        <v>160.5757316813421</v>
+        <v>128.4114721653165</v>
       </c>
       <c r="L26" t="n">
         <v>340.6515832660007</v>
       </c>
       <c r="M26" t="n">
-        <v>557.6272105289048</v>
+        <v>650.0863327859927</v>
       </c>
       <c r="N26" t="n">
-        <v>855.9408549932318</v>
+        <v>855.9408549932321</v>
       </c>
       <c r="O26" t="n">
         <v>1005.13580513588</v>
@@ -6248,28 +6248,28 @@
         <v>1269.823312719707</v>
       </c>
       <c r="R26" t="n">
-        <v>1212.776782258886</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="S26" t="n">
-        <v>1212.776782258886</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="T26" t="n">
-        <v>1212.776782258886</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="U26" t="n">
-        <v>1096.48123330301</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="V26" t="n">
-        <v>859.7547629139219</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="W26" t="n">
-        <v>859.7547629139219</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="X26" t="n">
-        <v>859.7547629139219</v>
+        <v>990.6939714131095</v>
       </c>
       <c r="Y26" t="n">
-        <v>563.9518478925922</v>
+        <v>694.8910563917798</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>340.6373774582556</v>
+        <v>340.637377458256</v>
       </c>
       <c r="C27" t="n">
-        <v>260.5207651316106</v>
+        <v>260.520765131611</v>
       </c>
       <c r="D27" t="n">
-        <v>205.9227724248414</v>
+        <v>205.9227724248417</v>
       </c>
       <c r="E27" t="n">
-        <v>141.0217343738678</v>
+        <v>141.0217343738683</v>
       </c>
       <c r="F27" t="n">
-        <v>88.82359335523482</v>
+        <v>88.82359335523526</v>
       </c>
       <c r="G27" t="n">
-        <v>44.42918489233281</v>
+        <v>44.4291848923328</v>
       </c>
       <c r="H27" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="I27" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="J27" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="K27" t="n">
-        <v>25.39646625439414</v>
+        <v>150.7540263122316</v>
       </c>
       <c r="L27" t="n">
-        <v>255.3595721227433</v>
+        <v>380.7171321805807</v>
       </c>
       <c r="M27" t="n">
-        <v>569.6408420208708</v>
+        <v>694.9984020787083</v>
       </c>
       <c r="N27" t="n">
-        <v>838.4264210223939</v>
+        <v>769.0318625090649</v>
       </c>
       <c r="O27" t="n">
-        <v>1087.179835106356</v>
+        <v>1017.785276593027</v>
       </c>
       <c r="P27" t="n">
-        <v>1269.823312719707</v>
+        <v>1200.428754206378</v>
       </c>
       <c r="Q27" t="n">
         <v>1269.823312719707</v>
@@ -6336,19 +6336,19 @@
         <v>1076.059094945474</v>
       </c>
       <c r="U27" t="n">
-        <v>942.1718936363447</v>
+        <v>942.1718936363451</v>
       </c>
       <c r="V27" t="n">
-        <v>801.356202359084</v>
+        <v>801.3562023590844</v>
       </c>
       <c r="W27" t="n">
-        <v>641.4552625853644</v>
+        <v>641.4552625853647</v>
       </c>
       <c r="X27" t="n">
-        <v>527.9401793343136</v>
+        <v>527.9401793343139</v>
       </c>
       <c r="Y27" t="n">
-        <v>414.5162975238417</v>
+        <v>414.516297523842</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>469.4717814917042</v>
+        <v>151.7100216434044</v>
       </c>
       <c r="C28" t="n">
-        <v>394.8720155182793</v>
+        <v>151.7100216434044</v>
       </c>
       <c r="D28" t="n">
-        <v>339.0917930604256</v>
+        <v>151.7100216434044</v>
       </c>
       <c r="E28" t="n">
-        <v>285.5151164325145</v>
+        <v>151.7100216434044</v>
       </c>
       <c r="F28" t="n">
-        <v>232.9615858890862</v>
+        <v>151.7100216434044</v>
       </c>
       <c r="G28" t="n">
-        <v>157.610144905731</v>
+        <v>76.35858066004924</v>
       </c>
       <c r="H28" t="n">
-        <v>88.08073104461748</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="I28" t="n">
-        <v>25.39646625439414</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="J28" t="n">
-        <v>25.4300001959759</v>
+        <v>25.43000019597592</v>
       </c>
       <c r="K28" t="n">
-        <v>95.84232554543969</v>
+        <v>95.84232554543972</v>
       </c>
       <c r="L28" t="n">
         <v>215.6155728102405</v>
@@ -6406,28 +6406,28 @@
         <v>697.1347004313045</v>
       </c>
       <c r="R28" t="n">
-        <v>697.1347004313045</v>
+        <v>612.3868836714739</v>
       </c>
       <c r="S28" t="n">
-        <v>697.1347004313045</v>
+        <v>480.4439086694183</v>
       </c>
       <c r="T28" t="n">
-        <v>697.1347004313045</v>
+        <v>480.4439086694183</v>
       </c>
       <c r="U28" t="n">
-        <v>697.1347004313045</v>
+        <v>480.4439086694183</v>
       </c>
       <c r="V28" t="n">
-        <v>697.1347004313045</v>
+        <v>480.4439086694183</v>
       </c>
       <c r="W28" t="n">
-        <v>697.1347004313045</v>
+        <v>285.3631555869397</v>
       </c>
       <c r="X28" t="n">
-        <v>683.2399915565101</v>
+        <v>151.7100216434044</v>
       </c>
       <c r="Y28" t="n">
-        <v>556.783829367462</v>
+        <v>151.7100216434044</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>715.6662689105107</v>
+        <v>761.1357323181255</v>
       </c>
       <c r="C29" t="n">
-        <v>580.66151890033</v>
+        <v>761.1357323181255</v>
       </c>
       <c r="D29" t="n">
-        <v>580.66151890033</v>
+        <v>761.1357323181255</v>
       </c>
       <c r="E29" t="n">
-        <v>580.66151890033</v>
+        <v>512.5794546316993</v>
       </c>
       <c r="F29" t="n">
-        <v>306.9075890225404</v>
+        <v>512.5794546316993</v>
       </c>
       <c r="G29" t="n">
-        <v>24.64184927260586</v>
+        <v>230.3137148817647</v>
       </c>
       <c r="H29" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="I29" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3131114226123</v>
+        <v>28.20512623012272</v>
       </c>
       <c r="K29" t="n">
-        <v>384.8291759446075</v>
+        <v>131.2201321410451</v>
       </c>
       <c r="L29" t="n">
-        <v>564.9050275292661</v>
+        <v>311.2959837257036</v>
       </c>
       <c r="M29" t="n">
-        <v>781.8806547921703</v>
+        <v>528.2716109886078</v>
       </c>
       <c r="N29" t="n">
-        <v>987.7351769994095</v>
+        <v>734.126133195847</v>
       </c>
       <c r="O29" t="n">
-        <v>1136.930127142058</v>
+        <v>883.3210833384951</v>
       </c>
       <c r="P29" t="n">
-        <v>1226.590182434109</v>
+        <v>1107.482197241619</v>
       </c>
       <c r="Q29" t="n">
         <v>1232.092463630293</v>
       </c>
       <c r="R29" t="n">
-        <v>1217.941491126808</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="S29" t="n">
-        <v>1217.941491126808</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="T29" t="n">
-        <v>1217.941491126808</v>
+        <v>1143.975095548039</v>
       </c>
       <c r="U29" t="n">
-        <v>1217.941491126808</v>
+        <v>1027.322572573153</v>
       </c>
       <c r="V29" t="n">
-        <v>1217.941491126808</v>
+        <v>1010.503597470429</v>
       </c>
       <c r="W29" t="n">
-        <v>1217.941491126808</v>
+        <v>1010.503597470429</v>
       </c>
       <c r="X29" t="n">
-        <v>1217.941491126808</v>
+        <v>1010.503597470429</v>
       </c>
       <c r="Y29" t="n">
-        <v>965.0341340628145</v>
+        <v>1010.503597470429</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>356.9733625560877</v>
+        <v>471.1358310183286</v>
       </c>
       <c r="C30" t="n">
-        <v>319.7523081867787</v>
+        <v>433.9147766490196</v>
       </c>
       <c r="D30" t="n">
-        <v>308.0498734373455</v>
+        <v>284.9803669877683</v>
       </c>
       <c r="E30" t="n">
-        <v>286.0443933437081</v>
+        <v>262.9748868941309</v>
       </c>
       <c r="F30" t="n">
-        <v>276.7418102824111</v>
+        <v>253.6723038328338</v>
       </c>
       <c r="G30" t="n">
-        <v>138.0109848650265</v>
+        <v>114.9414784154494</v>
       </c>
       <c r="H30" t="n">
-        <v>24.64184927260586</v>
+        <v>114.9414784154494</v>
       </c>
       <c r="I30" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J30" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="K30" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="L30" t="n">
-        <v>254.604955140955</v>
+        <v>190.8098024359846</v>
       </c>
       <c r="M30" t="n">
-        <v>559.5478398894525</v>
+        <v>495.752687184482</v>
       </c>
       <c r="N30" t="n">
-        <v>864.4907246379499</v>
+        <v>800.6955719329794</v>
       </c>
       <c r="O30" t="n">
-        <v>1113.244138721912</v>
+        <v>1049.448986016942</v>
       </c>
       <c r="P30" t="n">
         <v>1232.092463630293</v>
@@ -6567,25 +6567,25 @@
         <v>1232.092463630293</v>
       </c>
       <c r="S30" t="n">
-        <v>1195.90709399278</v>
+        <v>1195.907093992779</v>
       </c>
       <c r="T30" t="n">
-        <v>1109.485682122925</v>
+        <v>1130.952474263363</v>
       </c>
       <c r="U30" t="n">
-        <v>1018.494038771133</v>
+        <v>1039.960830911571</v>
       </c>
       <c r="V30" t="n">
-        <v>920.573905451208</v>
+        <v>804.808722679828</v>
       </c>
       <c r="W30" t="n">
-        <v>803.5685236348245</v>
+        <v>687.8033408634444</v>
       </c>
       <c r="X30" t="n">
-        <v>595.7170234292917</v>
+        <v>617.1838155697296</v>
       </c>
       <c r="Y30" t="n">
-        <v>525.1886995761558</v>
+        <v>546.6554917165938</v>
       </c>
     </row>
     <row r="31">
@@ -6610,34 +6610,34 @@
         <v>103.5202950352898</v>
       </c>
       <c r="G31" t="n">
-        <v>71.06441200927067</v>
+        <v>71.06441200927065</v>
       </c>
       <c r="H31" t="n">
-        <v>44.43055610549317</v>
+        <v>44.43055610549315</v>
       </c>
       <c r="I31" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J31" t="n">
         <v>66.71731956817275</v>
       </c>
       <c r="K31" t="n">
-        <v>179.1715812716213</v>
+        <v>179.1715812716216</v>
       </c>
       <c r="L31" t="n">
-        <v>340.9867648904066</v>
+        <v>340.9867648904074</v>
       </c>
       <c r="M31" t="n">
-        <v>514.6758616937017</v>
+        <v>514.6758616937025</v>
       </c>
       <c r="N31" t="n">
-        <v>692.8677709602108</v>
+        <v>692.8677709602114</v>
       </c>
       <c r="O31" t="n">
-        <v>851.7081062061829</v>
+        <v>851.7081062061836</v>
       </c>
       <c r="P31" t="n">
-        <v>983.5149384895003</v>
+        <v>983.514938489501</v>
       </c>
       <c r="Q31" t="n">
         <v>1032.715574281396</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>408.3582616524851</v>
+        <v>996.4937659107532</v>
       </c>
       <c r="C32" t="n">
-        <v>408.3582616524851</v>
+        <v>971.1173036220227</v>
       </c>
       <c r="D32" t="n">
-        <v>187.9596235872752</v>
+        <v>750.7186655568129</v>
       </c>
       <c r="E32" t="n">
-        <v>24.64184927260586</v>
+        <v>502.7974735001092</v>
       </c>
       <c r="F32" t="n">
-        <v>24.64184927260586</v>
+        <v>229.6786292520422</v>
       </c>
       <c r="G32" t="n">
-        <v>24.64184927260586</v>
+        <v>229.6786292520422</v>
       </c>
       <c r="H32" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="I32" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J32" t="n">
-        <v>147.9355588483034</v>
+        <v>147.9355588483033</v>
       </c>
       <c r="K32" t="n">
         <v>250.9505647592257</v>
@@ -6710,10 +6710,10 @@
         <v>648.0020436067884</v>
       </c>
       <c r="N32" t="n">
-        <v>868.0047443812291</v>
+        <v>853.8565658140278</v>
       </c>
       <c r="O32" t="n">
-        <v>1017.199694523877</v>
+        <v>1003.051515956676</v>
       </c>
       <c r="P32" t="n">
         <v>1106.859749815928</v>
@@ -6722,28 +6722,28 @@
         <v>1232.092463630293</v>
       </c>
       <c r="R32" t="n">
-        <v>1218.576576756531</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="S32" t="n">
-        <v>1218.576576756531</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="T32" t="n">
-        <v>1218.576576756531</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="U32" t="n">
-        <v>1102.559139411368</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="V32" t="n">
-        <v>909.3633126093375</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="W32" t="n">
-        <v>909.3633126093375</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="X32" t="n">
-        <v>909.3633126093375</v>
+        <v>996.4937659107532</v>
       </c>
       <c r="Y32" t="n">
-        <v>657.0910411750664</v>
+        <v>996.4937659107532</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>241.0638844447769</v>
+        <v>106.5165473917797</v>
       </c>
       <c r="C33" t="n">
-        <v>204.4779157051905</v>
+        <v>66.61085516364992</v>
       </c>
       <c r="D33" t="n">
-        <v>55.54350604393922</v>
+        <v>55.5435060439392</v>
       </c>
       <c r="E33" t="n">
-        <v>34.17311158002427</v>
+        <v>34.17311158002425</v>
       </c>
       <c r="F33" t="n">
-        <v>25.50561414844979</v>
+        <v>25.50561414844978</v>
       </c>
       <c r="G33" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="H33" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="I33" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J33" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="K33" t="n">
-        <v>149.9994093304433</v>
+        <v>143.4901741809863</v>
       </c>
       <c r="L33" t="n">
-        <v>379.9625151987924</v>
+        <v>373.4532800493354</v>
       </c>
       <c r="M33" t="n">
-        <v>684.9053999472899</v>
+        <v>678.3961647978329</v>
       </c>
       <c r="N33" t="n">
-        <v>731.3010134196504</v>
+        <v>983.3390495463302</v>
       </c>
       <c r="O33" t="n">
-        <v>980.0544275036127</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="P33" t="n">
-        <v>1162.697905116964</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="Q33" t="n">
         <v>1232.092463630293</v>
@@ -6804,25 +6804,25 @@
         <v>1232.092463630293</v>
       </c>
       <c r="S33" t="n">
-        <v>1058.675119080962</v>
+        <v>1058.675119080961</v>
       </c>
       <c r="T33" t="n">
-        <v>856.4885244397276</v>
+        <v>856.4885244397274</v>
       </c>
       <c r="U33" t="n">
-        <v>628.2649061761167</v>
+        <v>628.2649061761165</v>
       </c>
       <c r="V33" t="n">
-        <v>527.6601349973711</v>
+        <v>393.1127979443738</v>
       </c>
       <c r="W33" t="n">
-        <v>411.28983881071</v>
+        <v>276.7425017577127</v>
       </c>
       <c r="X33" t="n">
-        <v>341.3053991467177</v>
+        <v>206.7580620937205</v>
       </c>
       <c r="Y33" t="n">
-        <v>271.4121609233044</v>
+        <v>136.8648238703071</v>
       </c>
     </row>
     <row r="34">
@@ -6853,10 +6853,10 @@
         <v>43.79547047577064</v>
       </c>
       <c r="I34" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J34" t="n">
-        <v>67.33976699386371</v>
+        <v>67.33976699386369</v>
       </c>
       <c r="K34" t="n">
         <v>180.4164761230036</v>
@@ -6865,7 +6865,7 @@
         <v>342.8541071674804</v>
       </c>
       <c r="M34" t="n">
-        <v>502.0247019153772</v>
+        <v>517.1656513964665</v>
       </c>
       <c r="N34" t="n">
         <v>680.8390586075774</v>
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>229.6786292520422</v>
+        <v>799.7899857060947</v>
       </c>
       <c r="C35" t="n">
-        <v>229.6786292520422</v>
+        <v>799.7899857060947</v>
       </c>
       <c r="D35" t="n">
-        <v>229.6786292520422</v>
+        <v>579.3913476408849</v>
       </c>
       <c r="E35" t="n">
-        <v>229.6786292520422</v>
+        <v>579.3913476408849</v>
       </c>
       <c r="F35" t="n">
-        <v>229.6786292520422</v>
+        <v>306.2725033928179</v>
       </c>
       <c r="G35" t="n">
-        <v>229.6786292520422</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="H35" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="I35" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J35" t="n">
-        <v>147.9355588483034</v>
+        <v>147.9355588483033</v>
       </c>
       <c r="K35" t="n">
         <v>250.9505647592257</v>
@@ -6953,7 +6953,7 @@
         <v>1003.051515956676</v>
       </c>
       <c r="P35" t="n">
-        <v>1227.835077285491</v>
+        <v>1106.859749815928</v>
       </c>
       <c r="Q35" t="n">
         <v>1232.092463630293</v>
@@ -6962,25 +6962,25 @@
         <v>1232.092463630293</v>
       </c>
       <c r="S35" t="n">
-        <v>1158.828140751383</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="T35" t="n">
-        <v>1071.345858298852</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="U35" t="n">
-        <v>955.3284209536889</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="V35" t="n">
-        <v>762.1325941516589</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="W35" t="n">
-        <v>547.2309994230852</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="X35" t="n">
-        <v>547.2309994230852</v>
+        <v>996.4937659107532</v>
       </c>
       <c r="Y35" t="n">
-        <v>478.4114087746235</v>
+        <v>799.7899857060947</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>244.3836079333203</v>
+        <v>355.1871526899833</v>
       </c>
       <c r="C36" t="n">
-        <v>207.7976391937339</v>
+        <v>180.7341234088563</v>
       </c>
       <c r="D36" t="n">
-        <v>196.7302900740232</v>
+        <v>169.6667742891456</v>
       </c>
       <c r="E36" t="n">
-        <v>172.0401721215648</v>
+        <v>148.2963798252306</v>
       </c>
       <c r="F36" t="n">
-        <v>25.50561414844979</v>
+        <v>139.6288823936562</v>
       </c>
       <c r="G36" t="n">
-        <v>24.64184927260586</v>
+        <v>138.7651175178122</v>
       </c>
       <c r="H36" t="n">
-        <v>24.64184927260586</v>
+        <v>25.39598192539156</v>
       </c>
       <c r="I36" t="n">
-        <v>24.64184927260586</v>
+        <v>25.39598192539156</v>
       </c>
       <c r="J36" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="K36" t="n">
-        <v>149.9994093304433</v>
+        <v>140.2055521382686</v>
       </c>
       <c r="L36" t="n">
-        <v>149.9994093304433</v>
+        <v>370.1686580066177</v>
       </c>
       <c r="M36" t="n">
-        <v>454.9422940789407</v>
+        <v>675.1115427551151</v>
       </c>
       <c r="N36" t="n">
-        <v>759.8851788274383</v>
+        <v>980.0544275036125</v>
       </c>
       <c r="O36" t="n">
-        <v>1008.638592911401</v>
+        <v>980.0544275036125</v>
       </c>
       <c r="P36" t="n">
-        <v>1191.282070524751</v>
+        <v>1162.697905116963</v>
       </c>
       <c r="Q36" t="n">
         <v>1232.092463630293</v>
@@ -7041,25 +7041,25 @@
         <v>1232.092463630293</v>
       </c>
       <c r="S36" t="n">
-        <v>1196.542179622502</v>
+        <v>1058.675119080961</v>
       </c>
       <c r="T36" t="n">
-        <v>994.3555849812681</v>
+        <v>967.2920691963908</v>
       </c>
       <c r="U36" t="n">
-        <v>766.1319667176572</v>
+        <v>876.9355114743204</v>
       </c>
       <c r="V36" t="n">
-        <v>530.9798584859145</v>
+        <v>779.6504637841182</v>
       </c>
       <c r="W36" t="n">
-        <v>414.6095622992534</v>
+        <v>663.2801675974571</v>
       </c>
       <c r="X36" t="n">
-        <v>344.6251226352612</v>
+        <v>593.2957279334648</v>
       </c>
       <c r="Y36" t="n">
-        <v>274.7318844118478</v>
+        <v>523.4024897100514</v>
       </c>
     </row>
     <row r="37">
@@ -7090,22 +7090,22 @@
         <v>43.79547047577064</v>
       </c>
       <c r="I37" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J37" t="n">
-        <v>67.33976699386371</v>
+        <v>67.33976699386369</v>
       </c>
       <c r="K37" t="n">
         <v>180.4164761230036</v>
       </c>
       <c r="L37" t="n">
-        <v>327.7131576863911</v>
+        <v>342.8541071674804</v>
       </c>
       <c r="M37" t="n">
-        <v>502.0247019153772</v>
+        <v>517.1656513964665</v>
       </c>
       <c r="N37" t="n">
-        <v>680.8390586075774</v>
+        <v>695.9800080886666</v>
       </c>
       <c r="O37" t="n">
         <v>840.3018412792405</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1017.190868901719</v>
+        <v>731.08741267344</v>
       </c>
       <c r="C38" t="n">
-        <v>1017.190868901719</v>
+        <v>731.08741267344</v>
       </c>
       <c r="D38" t="n">
-        <v>1017.190868901719</v>
+        <v>731.08741267344</v>
       </c>
       <c r="E38" t="n">
-        <v>784.4281276203212</v>
+        <v>579.3913476408849</v>
       </c>
       <c r="F38" t="n">
-        <v>511.3092833722543</v>
+        <v>306.2725033928179</v>
       </c>
       <c r="G38" t="n">
-        <v>229.6786292520422</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="H38" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="I38" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J38" t="n">
-        <v>147.9355588483034</v>
+        <v>147.9355588483033</v>
       </c>
       <c r="K38" t="n">
         <v>250.9505647592257</v>
@@ -7181,10 +7181,10 @@
         <v>431.0264163438843</v>
       </c>
       <c r="M38" t="n">
-        <v>648.0020436067884</v>
+        <v>662.1502221739895</v>
       </c>
       <c r="N38" t="n">
-        <v>853.8565658140278</v>
+        <v>868.0047443812289</v>
       </c>
       <c r="O38" t="n">
         <v>1017.199694523877</v>
@@ -7211,13 +7211,13 @@
         <v>1232.092463630293</v>
       </c>
       <c r="W38" t="n">
-        <v>1017.190868901719</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="X38" t="n">
-        <v>1017.190868901719</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="Y38" t="n">
-        <v>1017.190868901719</v>
+        <v>979.8201921960213</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>241.8180170975627</v>
+        <v>244.38360793332</v>
       </c>
       <c r="C39" t="n">
-        <v>205.2320483579762</v>
+        <v>207.7976391937335</v>
       </c>
       <c r="D39" t="n">
-        <v>194.1646992382655</v>
+        <v>196.7302900740227</v>
       </c>
       <c r="E39" t="n">
-        <v>172.7943047743505</v>
+        <v>124.4727407228678</v>
       </c>
       <c r="F39" t="n">
-        <v>26.2597468012355</v>
+        <v>115.8052432912933</v>
       </c>
       <c r="G39" t="n">
-        <v>25.39598192539157</v>
+        <v>114.9414784154494</v>
       </c>
       <c r="H39" t="n">
-        <v>25.39598192539157</v>
+        <v>114.9414784154494</v>
       </c>
       <c r="I39" t="n">
-        <v>25.39598192539157</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J39" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="K39" t="n">
-        <v>24.64184927260586</v>
+        <v>149.9994093304433</v>
       </c>
       <c r="L39" t="n">
-        <v>254.604955140955</v>
+        <v>379.9625151987924</v>
       </c>
       <c r="M39" t="n">
-        <v>559.5478398894525</v>
+        <v>684.9053999472899</v>
       </c>
       <c r="N39" t="n">
-        <v>864.4907246379499</v>
+        <v>989.8482846957872</v>
       </c>
       <c r="O39" t="n">
-        <v>980.0544275036127</v>
+        <v>1049.448986016942</v>
       </c>
       <c r="P39" t="n">
-        <v>1162.697905116964</v>
+        <v>1232.092463630293</v>
       </c>
       <c r="Q39" t="n">
         <v>1232.092463630293</v>
@@ -7278,25 +7278,25 @@
         <v>1232.092463630293</v>
       </c>
       <c r="S39" t="n">
-        <v>1058.675119080962</v>
+        <v>1058.675119080961</v>
       </c>
       <c r="T39" t="n">
-        <v>994.3555849812682</v>
+        <v>994.355584981268</v>
       </c>
       <c r="U39" t="n">
-        <v>901.4334364234401</v>
+        <v>903.9990272591975</v>
       </c>
       <c r="V39" t="n">
-        <v>666.2813281916974</v>
+        <v>806.7139795689953</v>
       </c>
       <c r="W39" t="n">
-        <v>412.0439714634957</v>
+        <v>690.3436833823342</v>
       </c>
       <c r="X39" t="n">
-        <v>342.0595317995035</v>
+        <v>482.4921831768014</v>
       </c>
       <c r="Y39" t="n">
-        <v>272.1662935760901</v>
+        <v>274.7318844118475</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.0026594005061</v>
+        <v>164.0026594005063</v>
       </c>
       <c r="C40" t="n">
-        <v>132.9335370141397</v>
+        <v>132.9335370141399</v>
       </c>
       <c r="D40" t="n">
-        <v>120.6839581433446</v>
+        <v>120.6839581433447</v>
       </c>
       <c r="E40" t="n">
-        <v>110.637925102492</v>
+        <v>110.6379251024921</v>
       </c>
       <c r="F40" t="n">
-        <v>101.6150381461222</v>
+        <v>101.6150381461223</v>
       </c>
       <c r="G40" t="n">
-        <v>69.79424074982563</v>
+        <v>69.79424074982569</v>
       </c>
       <c r="H40" t="n">
-        <v>43.79547047577064</v>
+        <v>43.79547047577067</v>
       </c>
       <c r="I40" t="n">
-        <v>24.64184927260586</v>
+        <v>24.64184927260585</v>
       </c>
       <c r="J40" t="n">
-        <v>67.33976699386371</v>
+        <v>67.33976699386366</v>
       </c>
       <c r="K40" t="n">
-        <v>180.4164761230036</v>
+        <v>180.4164761230035</v>
       </c>
       <c r="L40" t="n">
-        <v>327.7131576863911</v>
+        <v>342.8541071674804</v>
       </c>
       <c r="M40" t="n">
-        <v>502.0247019153772</v>
+        <v>502.0247019153779</v>
       </c>
       <c r="N40" t="n">
-        <v>680.8390586075774</v>
+        <v>680.8390586075781</v>
       </c>
       <c r="O40" t="n">
-        <v>840.3018412792405</v>
+        <v>840.3018412792412</v>
       </c>
       <c r="P40" t="n">
-        <v>972.731120988249</v>
+        <v>972.7311209882496</v>
       </c>
       <c r="Q40" t="n">
         <v>1022.554204205836</v>
       </c>
       <c r="R40" t="n">
-        <v>981.3370310330635</v>
+        <v>981.3370310330639</v>
       </c>
       <c r="S40" t="n">
-        <v>892.9246996180664</v>
+        <v>892.9246996180668</v>
       </c>
       <c r="T40" t="n">
-        <v>800.5436900300297</v>
+        <v>800.5436900300301</v>
       </c>
       <c r="U40" t="n">
-        <v>649.199609807438</v>
+        <v>649.1996098074384</v>
       </c>
       <c r="V40" t="n">
-        <v>532.3821821430917</v>
+        <v>532.382182143092</v>
       </c>
       <c r="W40" t="n">
-        <v>380.8320726476716</v>
+        <v>380.8320726476719</v>
       </c>
       <c r="X40" t="n">
-        <v>290.7095822911948</v>
+        <v>290.709582291195</v>
       </c>
       <c r="Y40" t="n">
-        <v>207.7840636892053</v>
+        <v>207.7840636892055</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>872.6789809260943</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="C41" t="n">
-        <v>872.6789809260943</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="D41" t="n">
-        <v>872.6789809260943</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="E41" t="n">
-        <v>872.6789809260943</v>
+        <v>872.6789809260941</v>
       </c>
       <c r="F41" t="n">
-        <v>595.7120630796571</v>
+        <v>577.8550008834948</v>
       </c>
       <c r="G41" t="n">
         <v>300.8880830370578</v>
       </c>
       <c r="H41" t="n">
-        <v>23.35005921937388</v>
+        <v>23.35005921937387</v>
       </c>
       <c r="I41" t="n">
-        <v>23.35005921937388</v>
+        <v>23.35005921937387</v>
       </c>
       <c r="J41" t="n">
-        <v>75.58529970920495</v>
+        <v>75.585299709205</v>
       </c>
       <c r="K41" t="n">
-        <v>178.6003056201273</v>
+        <v>242.6653425710249</v>
       </c>
       <c r="L41" t="n">
-        <v>358.6761572047859</v>
+        <v>451.6435613353528</v>
       </c>
       <c r="M41" t="n">
-        <v>575.65178446769</v>
+        <v>668.619188598257</v>
       </c>
       <c r="N41" t="n">
-        <v>810.4086738545986</v>
+        <v>874.4737108054962</v>
       </c>
       <c r="O41" t="n">
-        <v>959.6036239972467</v>
+        <v>1023.668660948144</v>
       </c>
       <c r="P41" t="n">
         <v>1113.328716240195</v>
@@ -7451,10 +7451,10 @@
         <v>1167.502960968694</v>
       </c>
       <c r="X41" t="n">
-        <v>872.6789809260943</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="Y41" t="n">
-        <v>872.6789809260943</v>
+        <v>1167.502960968694</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.43114376331687</v>
+        <v>383.2425117714199</v>
       </c>
       <c r="C42" t="n">
-        <v>80.43114376331687</v>
+        <v>274.155299193586</v>
       </c>
       <c r="D42" t="n">
-        <v>23.35005921937388</v>
+        <v>190.5867062356277</v>
       </c>
       <c r="E42" t="n">
-        <v>23.35005921937388</v>
+        <v>96.71506793346529</v>
       </c>
       <c r="F42" t="n">
-        <v>23.35005921937388</v>
+        <v>96.71506793346529</v>
       </c>
       <c r="G42" t="n">
-        <v>23.35005921937388</v>
+        <v>23.35005921937387</v>
       </c>
       <c r="H42" t="n">
-        <v>23.35005921937388</v>
+        <v>23.35005921937387</v>
       </c>
       <c r="I42" t="n">
-        <v>23.35005921937388</v>
+        <v>23.35005921937387</v>
       </c>
       <c r="J42" t="n">
-        <v>23.35005921937388</v>
+        <v>23.35005921937387</v>
       </c>
       <c r="K42" t="n">
-        <v>23.35005921937388</v>
+        <v>23.35005921937387</v>
       </c>
       <c r="L42" t="n">
-        <v>158.1921035918773</v>
+        <v>253.313165087723</v>
       </c>
       <c r="M42" t="n">
-        <v>447.149086431629</v>
+        <v>447.1490864316288</v>
       </c>
       <c r="N42" t="n">
-        <v>736.1060692713806</v>
+        <v>736.1060692713804</v>
       </c>
       <c r="O42" t="n">
-        <v>984.8594833553429</v>
+        <v>984.8594833553427</v>
       </c>
       <c r="P42" t="n">
         <v>1167.502960968694</v>
@@ -7518,22 +7518,22 @@
         <v>1023.647720378834</v>
       </c>
       <c r="T42" t="n">
-        <v>886.8269424408935</v>
+        <v>1023.647720378834</v>
       </c>
       <c r="U42" t="n">
-        <v>723.9691408805757</v>
+        <v>860.7899188185163</v>
       </c>
       <c r="V42" t="n">
-        <v>554.182849352126</v>
+        <v>691.0036272900667</v>
       </c>
       <c r="W42" t="n">
-        <v>365.3113093272174</v>
+        <v>668.1226773353205</v>
       </c>
       <c r="X42" t="n">
-        <v>222.8256258249777</v>
+        <v>525.6369938330807</v>
       </c>
       <c r="Y42" t="n">
-        <v>80.43114376331687</v>
+        <v>383.2425117714199</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.35005921937388</v>
+        <v>776.8918382330309</v>
       </c>
       <c r="C43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="D43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="E43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="F43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="G43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="H43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="I43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="J43" t="n">
-        <v>23.35005921937388</v>
+        <v>673.321472008417</v>
       </c>
       <c r="K43" t="n">
-        <v>65.36829926264738</v>
+        <v>715.3397120516905</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7474612212579</v>
+        <v>806.7188740103011</v>
       </c>
       <c r="M43" t="n">
-        <v>260.0005363643776</v>
+        <v>909.9719491534208</v>
       </c>
       <c r="N43" t="n">
-        <v>367.7564239707114</v>
+        <v>1017.727836759755</v>
       </c>
       <c r="O43" t="n">
-        <v>456.1607375565083</v>
+        <v>1106.132150345552</v>
       </c>
       <c r="P43" t="n">
-        <v>517.5315481796504</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="Q43" t="n">
-        <v>517.5315481796504</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="R43" t="n">
-        <v>517.5315481796504</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="S43" t="n">
-        <v>517.5315481796504</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="T43" t="n">
-        <v>517.5315481796504</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="U43" t="n">
-        <v>517.5315481796504</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="V43" t="n">
-        <v>517.5315481796504</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="W43" t="n">
-        <v>302.2564415410448</v>
+        <v>1167.502960968694</v>
       </c>
       <c r="X43" t="n">
-        <v>139.6327073463205</v>
+        <v>1048.601248800215</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.6327073463205</v>
+        <v>893.1744863599774</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.0919593006137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>22.64318265651358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>22.64318265651358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>22.64318265651358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>22.64318265651358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>22.64318265651358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>22.64318265651358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>22.64318265651358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6337217909688</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>544.9923284976793</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>301.5435518535792</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>58.09477520947917</v>
       </c>
       <c r="W44" t="n">
-        <v>752.9895125888138</v>
+        <v>58.09477520947917</v>
       </c>
       <c r="X44" t="n">
-        <v>509.5407359447137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>266.0919593006137</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>75.59620270857616</v>
+        <v>585.0340996285223</v>
       </c>
       <c r="C45" t="n">
-        <v>75.59620270857616</v>
+        <v>419.2890200481778</v>
       </c>
       <c r="D45" t="n">
-        <v>75.59620270857616</v>
+        <v>279.062560087709</v>
       </c>
       <c r="E45" t="n">
-        <v>75.59620270857616</v>
+        <v>157.1077513825453</v>
       </c>
       <c r="F45" t="n">
-        <v>75.59620270857616</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>75.59620270857616</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7761,16 +7761,16 @@
         <v>744.5414869478078</v>
       </c>
       <c r="V45" t="n">
-        <v>518.0973284168476</v>
+        <v>744.5414869478078</v>
       </c>
       <c r="W45" t="n">
-        <v>274.6485517727476</v>
+        <v>744.5414869478078</v>
       </c>
       <c r="X45" t="n">
-        <v>274.6485517727476</v>
+        <v>744.5414869478078</v>
       </c>
       <c r="Y45" t="n">
-        <v>75.59620270857616</v>
+        <v>744.5414869478078</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>825.3945703488862</v>
+        <v>55.12992961966264</v>
       </c>
       <c r="M46" t="n">
-        <v>873.1172700428453</v>
+        <v>102.8526293136218</v>
       </c>
       <c r="N46" t="n">
-        <v>925.3427822000185</v>
+        <v>155.078141470795</v>
       </c>
       <c r="O46" t="n">
-        <v>958.2167203366547</v>
+        <v>187.9520796074312</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7925147814127</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7925147814127</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7925147814127</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7925147814127</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7925147814127</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7925147814127</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>789.5457838394362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>380.3114851488076</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>399.9971950103418</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.1359563851797</v>
+        <v>281.2485423486663</v>
       </c>
       <c r="M3" t="n">
-        <v>373.7156105273238</v>
+        <v>373.7156105273237</v>
       </c>
       <c r="N3" t="n">
-        <v>203.9403610022978</v>
+        <v>362.9232886886386</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
@@ -9018,7 +9018,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>349.5811032609291</v>
+        <v>399.2956984650771</v>
       </c>
       <c r="N18" t="n">
         <v>388.5033766263921</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>217.5239260343618</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>450.1571498295915</v>
+        <v>421.2842554782906</v>
       </c>
       <c r="N21" t="n">
-        <v>439.3648279909065</v>
+        <v>439.3648279909064</v>
       </c>
       <c r="O21" t="n">
-        <v>387.2873342772781</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>459.5898621019451</v>
       </c>
       <c r="N27" t="n">
-        <v>402.8422969333567</v>
+        <v>206.1229852453097</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10194,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>306.4007971166204</v>
       </c>
       <c r="M30" t="n">
-        <v>450.1571498295915</v>
+        <v>450.1571498295914</v>
       </c>
       <c r="N30" t="n">
-        <v>439.3648279909065</v>
+        <v>439.3648279909064</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>254.0232204530985</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>257.8902520131271</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>450.1571498295915</v>
+        <v>450.1571498295914</v>
       </c>
       <c r="N33" t="n">
-        <v>178.2059681160207</v>
+        <v>439.3648279909064</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>254.5724519699779</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>450.1571498295915</v>
+        <v>450.1571498295914</v>
       </c>
       <c r="N36" t="n">
-        <v>439.3648279909065</v>
+        <v>439.3648279909064</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>181.2043933845482</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>450.1571498295915</v>
+        <v>450.1571498295914</v>
       </c>
       <c r="N39" t="n">
-        <v>439.3648279909065</v>
+        <v>439.3648279909064</v>
       </c>
       <c r="O39" t="n">
-        <v>259.3272574400634</v>
+        <v>202.7989730516712</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>274.7584650046251</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>434.0097741641918</v>
+        <v>337.9278938653575</v>
       </c>
       <c r="N42" t="n">
-        <v>423.2174523255068</v>
+        <v>423.2174523255067</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23270,10 +23270,10 @@
         <v>292.6332119640838</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H11" t="n">
-        <v>19.99339477424738</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I11" t="n">
         <v>96.23305579277827</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>94.7772358086177</v>
+        <v>21.69993533588099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9200167242604778</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E13" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0761955788632</v>
+        <v>153.7991146773963</v>
       </c>
       <c r="V13" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>172.2801645589633</v>
@@ -23498,19 +23498,19 @@
         <v>237.4053720386571</v>
       </c>
       <c r="D14" t="n">
-        <v>77.23787938790531</v>
+        <v>226.8155218883325</v>
       </c>
       <c r="E14" t="n">
-        <v>254.0628503399113</v>
+        <v>13.04856146225228</v>
       </c>
       <c r="F14" t="n">
-        <v>279.008526009361</v>
+        <v>37.99423713170194</v>
       </c>
       <c r="G14" t="n">
-        <v>287.4352177827846</v>
+        <v>46.42092890512555</v>
       </c>
       <c r="H14" t="n">
-        <v>211.6072823834167</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>82.60836983805547</v>
@@ -23543,22 +23543,22 @@
         <v>22.00159820879924</v>
       </c>
       <c r="S14" t="n">
-        <v>81.1525498538949</v>
+        <v>80.47444659386952</v>
       </c>
       <c r="T14" t="n">
         <v>95.22832983178091</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.4781331754861</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>199.8847387377845</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.3734489850626</v>
       </c>
       <c r="X14" t="n">
-        <v>0.8492920684595333</v>
+        <v>241.8635809461186</v>
       </c>
       <c r="Y14" t="n">
         <v>258.3704189237031</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.979633091442381</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>39.37930136627739</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>20.74795328586191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>40.12345962610831</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.35965277508913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>27.58295519490784</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>28.34558011962882</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>97.84213565668671</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.71713361974435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,10 +23738,10 @@
         <v>218.8233864579831</v>
       </c>
       <c r="E17" t="n">
-        <v>246.070714909562</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.85472603595281</v>
+        <v>256.238946148917</v>
       </c>
       <c r="G17" t="n">
         <v>279.4430823524352</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.00946277844986</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.16041442354552</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>191.8926033074351</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>101.0362313088419</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>250.3782834933538</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>246.8741865007807</v>
+        <v>207.0676381114562</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>218.8233864579831</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>246.0707149095619</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>271.0163905790116</v>
       </c>
       <c r="G20" t="n">
         <v>279.4430823524352</v>
@@ -23987,7 +23987,7 @@
         <v>203.6151469530673</v>
       </c>
       <c r="I20" t="n">
-        <v>74.61623440770606</v>
+        <v>74.61623440770609</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24017,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>73.16041442354552</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>87.23619440143153</v>
       </c>
       <c r="U20" t="n">
-        <v>79.19531733089539</v>
+        <v>115.4859977451367</v>
       </c>
       <c r="V20" t="n">
         <v>191.8926033074351</v>
       </c>
       <c r="W20" t="n">
-        <v>213.3813135547132</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>250.3782834933538</v>
       </c>
     </row>
     <row r="21">
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>246.8741865007807</v>
       </c>
       <c r="C23" t="n">
-        <v>220.8881532268101</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>218.8233864579831</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24218,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>279.4430823524352</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>203.6151469530673</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>47.49608043966749</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.00946277844983</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>73.16041442354549</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>87.2361944014315</v>
       </c>
       <c r="U23" t="n">
         <v>115.4859977451366</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>250.3782834933537</v>
       </c>
     </row>
     <row r="24">
@@ -24446,10 +24446,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>158.907500873129</v>
       </c>
       <c r="E26" t="n">
-        <v>288.5373172873246</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>313.4829929567742</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.47606515621248</v>
       </c>
       <c r="S26" t="n">
-        <v>115.6270168013082</v>
+        <v>115.6270168013081</v>
       </c>
       <c r="T26" t="n">
         <v>129.7027967791942</v>
       </c>
       <c r="U26" t="n">
-        <v>42.82000665658227</v>
+        <v>157.9526001228993</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>234.3592056851977</v>
       </c>
       <c r="W26" t="n">
         <v>255.8479159324758</v>
       </c>
       <c r="X26" t="n">
-        <v>276.3380478935318</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>86.4389273970001</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>73.85376831369064</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>55.22242023327516</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>53.04090986163197</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>52.02799523799405</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.38162646090383</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.05742214232109</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>83.9003385922323</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>130.6235452520351</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>134.5525366433443</v>
@@ -24661,13 +24661,13 @@
         <v>158.7445905388908</v>
       </c>
       <c r="W28" t="n">
-        <v>193.1299455516538</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>118.5608408180534</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>125.1916005671576</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24680,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>95.75853409822881</v>
+        <v>229.4132366083077</v>
       </c>
       <c r="D29" t="n">
         <v>218.8233864579831</v>
       </c>
       <c r="E29" t="n">
-        <v>246.0707149095619</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.0163905790116</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>203.6151469530673</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>74.61623440770606</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>14.00946277844983</v>
       </c>
       <c r="S29" t="n">
         <v>73.16041442354549</v>
       </c>
       <c r="T29" t="n">
-        <v>87.2361944014315</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>115.4859977451366</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>191.8926033074351</v>
+        <v>175.2418179557385</v>
       </c>
       <c r="W29" t="n">
         <v>213.3813135547132</v>
@@ -24746,7 +24746,7 @@
         <v>233.8714455157692</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>250.3782834933537</v>
       </c>
     </row>
     <row r="30">
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>246.2454517273554</v>
       </c>
       <c r="C32" t="n">
-        <v>228.7845018348824</v>
+        <v>203.6618041690393</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>83.75738356461403</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>270.3876558055863</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>278.8143475790099</v>
       </c>
       <c r="H32" t="n">
-        <v>202.986412179642</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>73.98749963428077</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>13.38072800502454</v>
       </c>
       <c r="S32" t="n">
         <v>72.5316796501202</v>
@@ -24971,19 +24971,19 @@
         <v>86.60745962800621</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>114.8572629717114</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>191.2638685340098</v>
       </c>
       <c r="W32" t="n">
         <v>212.7525787812879</v>
       </c>
       <c r="X32" t="n">
-        <v>233.2427107423439</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>249.7495487199284</v>
       </c>
     </row>
     <row r="33">
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>246.2454517273554</v>
       </c>
       <c r="C35" t="n">
         <v>228.7845018348824</v>
       </c>
       <c r="D35" t="n">
-        <v>218.1946516845578</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>245.4419801361366</v>
       </c>
       <c r="F35" t="n">
-        <v>270.3876558055863</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>278.8143475790099</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>202.986412179642</v>
       </c>
       <c r="I35" t="n">
         <v>73.98749963428077</v>
@@ -25202,25 +25202,25 @@
         <v>13.38072800502454</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>72.5316796501202</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>86.60745962800621</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>114.8572629717114</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>191.2638685340098</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>212.7525787812879</v>
       </c>
       <c r="X35" t="n">
-        <v>233.2427107423439</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>181.6181539779514</v>
+        <v>55.01280631731663</v>
       </c>
     </row>
     <row r="36">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>246.2454517273554</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>228.7845018348824</v>
@@ -25397,7 +25397,7 @@
         <v>218.1946516845578</v>
       </c>
       <c r="E38" t="n">
-        <v>15.00686626755274</v>
+        <v>95.26287575390711</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>202.986412179642</v>
       </c>
       <c r="I38" t="n">
-        <v>73.98749963428077</v>
+        <v>73.98749963428079</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>13.38072800502454</v>
+        <v>13.38072800502457</v>
       </c>
       <c r="S38" t="n">
-        <v>72.5316796501202</v>
+        <v>72.53167965012022</v>
       </c>
       <c r="T38" t="n">
-        <v>86.60745962800621</v>
+        <v>86.60745962800624</v>
       </c>
       <c r="U38" t="n">
         <v>114.8572629717114</v>
@@ -25451,13 +25451,13 @@
         <v>191.2638685340098</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>212.7525787812879</v>
       </c>
       <c r="X38" t="n">
         <v>233.2427107423439</v>
       </c>
       <c r="Y38" t="n">
-        <v>249.7495487199284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25634,13 +25634,13 @@
         <v>289.9708830844228</v>
       </c>
       <c r="E41" t="n">
-        <v>317.2182115360017</v>
+        <v>25.34247129382828</v>
       </c>
       <c r="F41" t="n">
-        <v>67.96663853747856</v>
+        <v>50.28814696327794</v>
       </c>
       <c r="G41" t="n">
-        <v>58.71483873670149</v>
+        <v>76.39333031090229</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>284.5288101811529</v>
       </c>
       <c r="X41" t="n">
-        <v>13.14320190003548</v>
+        <v>305.0189421422089</v>
       </c>
       <c r="Y41" t="n">
         <v>321.5257801197935</v>
@@ -25707,19 +25707,19 @@
         <v>101.8210251136072</v>
       </c>
       <c r="C42" t="n">
-        <v>107.9963404520556</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>26.22263332987506</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>92.93292191914081</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>80.35705385712374</v>
       </c>
       <c r="G42" t="n">
-        <v>72.6313586269505</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>47.52328570023633</v>
@@ -25758,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>135.4525701585615</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>164.3306841694608</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>102.5346625623677</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>83.90331448195222</v>
@@ -25846,13 +25846,13 @@
         <v>187.4254847875679</v>
       </c>
       <c r="W43" t="n">
-        <v>8.688484228111321</v>
+        <v>221.8108398003309</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>43.28480180598285</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8724948158347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>374.1129714597059</v>
       </c>
       <c r="C44" t="n">
-        <v>115.6377326895738</v>
+        <v>356.6520215672329</v>
       </c>
       <c r="D44" t="n">
         <v>346.0621714169083</v>
@@ -25874,19 +25874,19 @@
         <v>373.3094998684871</v>
       </c>
       <c r="F44" t="n">
-        <v>398.2551755379368</v>
+        <v>398.2551755379367</v>
       </c>
       <c r="G44" t="n">
-        <v>406.6818673113604</v>
+        <v>406.6818673113603</v>
       </c>
       <c r="H44" t="n">
-        <v>330.8539319119925</v>
+        <v>330.8539319119924</v>
       </c>
       <c r="I44" t="n">
         <v>201.8550193666312</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.328419150837831</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25907,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.369829010770133</v>
+        <v>1.369829010770118</v>
       </c>
       <c r="R44" t="n">
         <v>141.248247737375</v>
       </c>
       <c r="S44" t="n">
-        <v>200.3991993824707</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.4749793603567</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>242.7247827040618</v>
+        <v>1.71049382640274</v>
       </c>
       <c r="V44" t="n">
-        <v>319.1313882663602</v>
+        <v>78.11709938870115</v>
       </c>
       <c r="W44" t="n">
-        <v>131.6631320210342</v>
+        <v>340.6200985136383</v>
       </c>
       <c r="X44" t="n">
-        <v>120.0959415970353</v>
+        <v>322.6847346964205</v>
       </c>
       <c r="Y44" t="n">
-        <v>136.6027795746198</v>
+        <v>377.6170684522789</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25941,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.9123134460927</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>164.0876287845411</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>138.8241953608641</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>149.0242102516263</v>
+        <v>28.28894963351415</v>
       </c>
       <c r="F45" t="n">
-        <v>136.4483421896092</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>128.722646959436</v>
       </c>
       <c r="H45" t="n">
-        <v>47.86266503034199</v>
+        <v>103.6145740327218</v>
       </c>
       <c r="I45" t="n">
-        <v>80.77576264764041</v>
+        <v>80.77576264764039</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>91.53696394886846</v>
+        <v>91.53696394886845</v>
       </c>
       <c r="S45" t="n">
         <v>163.0623009000631</v>
@@ -26001,16 +26001,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>224.1797169456506</v>
       </c>
       <c r="W45" t="n">
-        <v>2.059824079485878</v>
+        <v>243.0741129571449</v>
       </c>
       <c r="X45" t="n">
         <v>197.1521149997028</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>197.0618255735297</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>171.2111099781626</v>
       </c>
       <c r="C46" t="n">
-        <v>158.6259508948532</v>
+        <v>158.6259508948531</v>
       </c>
       <c r="D46" t="n">
         <v>139.9946028144377</v>
@@ -26032,7 +26032,7 @@
         <v>137.8130924427945</v>
       </c>
       <c r="F46" t="n">
-        <v>136.8001778191566</v>
+        <v>136.8001778191565</v>
       </c>
       <c r="G46" t="n">
         <v>159.3701091546841</v>
@@ -26044,10 +26044,10 @@
         <v>146.8296047234836</v>
       </c>
       <c r="J46" t="n">
-        <v>84.7383099128981</v>
+        <v>84.73830991289809</v>
       </c>
       <c r="K46" t="n">
-        <v>13.64862162210818</v>
+        <v>13.64862162210817</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.54117304791971</v>
+        <v>77.5411730479197</v>
       </c>
       <c r="R46" t="n">
         <v>168.6725211733948</v>
@@ -26080,13 +26080,13 @@
         <v>277.6981591527162</v>
       </c>
       <c r="V46" t="n">
-        <v>243.5167731200533</v>
+        <v>70.75051516556533</v>
       </c>
       <c r="W46" t="n">
         <v>277.9021281328163</v>
       </c>
       <c r="X46" t="n">
-        <v>44.32252723077451</v>
+        <v>217.0887851852625</v>
       </c>
       <c r="Y46" t="n">
         <v>209.9637831483201</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579477.7122827161</v>
+        <v>579477.7122827159</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>580138.3364838494</v>
+        <v>580138.3364838493</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447481.2786602974</v>
+        <v>447481.2786602972</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244619</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244618</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244619</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>574268.3856427076</v>
+        <v>574268.3856427075</v>
       </c>
       <c r="F2" t="n">
         <v>597530.4354388348</v>
@@ -26329,31 +26329,31 @@
         <v>615789.7784527483</v>
       </c>
       <c r="H2" t="n">
-        <v>630323.0976118793</v>
+        <v>630323.0976118792</v>
       </c>
       <c r="I2" t="n">
-        <v>653176.5465211711</v>
+        <v>653176.5465211712</v>
       </c>
       <c r="J2" t="n">
-        <v>560513.2584709848</v>
+        <v>560513.2584709849</v>
       </c>
       <c r="K2" t="n">
-        <v>630323.0976118791</v>
+        <v>630323.0976118792</v>
       </c>
       <c r="L2" t="n">
+        <v>631063.7974737572</v>
+      </c>
+      <c r="M2" t="n">
+        <v>631063.7974737568</v>
+      </c>
+      <c r="N2" t="n">
         <v>631063.7974737573</v>
-      </c>
-      <c r="M2" t="n">
-        <v>631063.7974737572</v>
-      </c>
-      <c r="N2" t="n">
-        <v>631063.7974737572</v>
       </c>
       <c r="O2" t="n">
         <v>482479.0727875083</v>
       </c>
       <c r="P2" t="n">
-        <v>328837.23736339</v>
+        <v>328837.2373633902</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77608.3126966998</v>
+        <v>77608.31269669975</v>
       </c>
       <c r="C3" t="n">
-        <v>3047.432824669887</v>
+        <v>3047.432824669923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>10819.4618035306</v>
       </c>
       <c r="H3" t="n">
-        <v>13722.87733120826</v>
+        <v>13722.87733120825</v>
       </c>
       <c r="I3" t="n">
-        <v>21268.08188445921</v>
+        <v>21268.08188445925</v>
       </c>
       <c r="J3" t="n">
-        <v>99554.9157959931</v>
+        <v>99554.91579599307</v>
       </c>
       <c r="K3" t="n">
-        <v>44873.03066598837</v>
+        <v>44873.03066598836</v>
       </c>
       <c r="L3" t="n">
-        <v>6896.696163019737</v>
+        <v>6896.696163019749</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300996.0422522032</v>
+        <v>298174.588585857</v>
       </c>
       <c r="C4" t="n">
-        <v>298720.6125198924</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>298720.6125198924</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>184665.6474504935</v>
+        <v>181805.2522060413</v>
       </c>
       <c r="F4" t="n">
-        <v>199053.0267433225</v>
+        <v>196192.6314988703</v>
       </c>
       <c r="G4" t="n">
-        <v>209051.3049618789</v>
+        <v>206167.7419099745</v>
       </c>
       <c r="H4" t="n">
-        <v>213961.1076456305</v>
+        <v>211004.5699917615</v>
       </c>
       <c r="I4" t="n">
-        <v>221681.7063305717</v>
+        <v>218610.4170965982</v>
       </c>
       <c r="J4" t="n">
-        <v>170027.8434878244</v>
+        <v>167057.7720395973</v>
       </c>
       <c r="K4" t="n">
-        <v>213961.1076456305</v>
+        <v>211004.5699917615</v>
       </c>
       <c r="L4" t="n">
-        <v>214414.9856960383</v>
+        <v>211458.4480421694</v>
       </c>
       <c r="M4" t="n">
-        <v>214414.9856960384</v>
+        <v>211458.4480421694</v>
       </c>
       <c r="N4" t="n">
-        <v>214414.9856960384</v>
+        <v>211458.4480421693</v>
       </c>
       <c r="O4" t="n">
-        <v>123862.7290166908</v>
+        <v>120929.3591702741</v>
       </c>
       <c r="P4" t="n">
-        <v>33016.9980205804</v>
+        <v>30156.60277612827</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47707.75985760257</v>
+        <v>47707.75985760256</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26491,7 +26491,7 @@
         <v>35012.11084765165</v>
       </c>
       <c r="J5" t="n">
-        <v>27152.77490791643</v>
+        <v>27152.77490791644</v>
       </c>
       <c r="K5" t="n">
         <v>30149.39079705346</v>
@@ -26506,7 +26506,7 @@
         <v>30202.24790072055</v>
       </c>
       <c r="O5" t="n">
-        <v>23186.331462709</v>
+        <v>23186.33146270899</v>
       </c>
       <c r="P5" t="n">
         <v>15378.4167009228</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333151.5223179563</v>
+        <v>335972.9759843027</v>
       </c>
       <c r="C6" t="n">
-        <v>409414.323016138</v>
+        <v>412274.71826059</v>
       </c>
       <c r="D6" t="n">
-        <v>412461.7558408077</v>
+        <v>415322.1510852601</v>
       </c>
       <c r="E6" t="n">
-        <v>273950.5216134989</v>
+        <v>276810.916857951</v>
       </c>
       <c r="F6" t="n">
-        <v>362174.2966515935</v>
+        <v>365034.6918960456</v>
       </c>
       <c r="G6" t="n">
-        <v>368861.9971332479</v>
+        <v>371745.5601851523</v>
       </c>
       <c r="H6" t="n">
-        <v>372489.7218379872</v>
+        <v>375446.2594918561</v>
       </c>
       <c r="I6" t="n">
-        <v>375214.6474584885</v>
+        <v>378285.9366924621</v>
       </c>
       <c r="J6" t="n">
-        <v>263777.7242792508</v>
+        <v>266747.7957274781</v>
       </c>
       <c r="K6" t="n">
-        <v>341339.5685032068</v>
+        <v>344296.106157076</v>
       </c>
       <c r="L6" t="n">
-        <v>379549.8677139786</v>
+        <v>382506.4053678475</v>
       </c>
       <c r="M6" t="n">
-        <v>386446.5638769982</v>
+        <v>389403.1015308669</v>
       </c>
       <c r="N6" t="n">
-        <v>386446.5638769983</v>
+        <v>389403.1015308675</v>
       </c>
       <c r="O6" t="n">
-        <v>335430.0123081085</v>
+        <v>338363.3821545251</v>
       </c>
       <c r="P6" t="n">
-        <v>280441.8226418868</v>
+        <v>283302.2178863391</v>
       </c>
     </row>
   </sheetData>
@@ -26701,13 +26701,13 @@
         <v>135.8596551626998</v>
       </c>
       <c r="H2" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I2" t="n">
         <v>135.8596551626999</v>
       </c>
       <c r="J2" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="K2" t="n">
         <v>135.8596551626999</v>
@@ -26725,7 +26725,7 @@
         <v>64.71215853626013</v>
       </c>
       <c r="P2" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.5815766053055</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26805,7 +26805,7 @@
         <v>257.1616645430588</v>
       </c>
       <c r="H4" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="I4" t="n">
         <v>388.0020641082012</v>
@@ -26814,16 +26814,16 @@
         <v>317.4558281799268</v>
       </c>
       <c r="K4" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="L4" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="N4" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="O4" t="n">
         <v>291.8757402421734</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.776231399865</v>
+        <v>71.77623139986498</v>
       </c>
       <c r="K2" t="n">
-        <v>56.09128833248546</v>
+        <v>56.09128833248545</v>
       </c>
       <c r="L2" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.5815766053055</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="C4" t="n">
-        <v>9.432712272353569</v>
+        <v>9.432712272353683</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>16.14737566539975</v>
       </c>
       <c r="H4" t="n">
-        <v>50.86145136451438</v>
+        <v>50.86145136451432</v>
       </c>
       <c r="I4" t="n">
-        <v>79.97894820062805</v>
+        <v>79.97894820062811</v>
       </c>
       <c r="J4" t="n">
-        <v>161.035340677031</v>
+        <v>161.0353406770309</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>71.776231399865</v>
+        <v>71.77623139986498</v>
       </c>
       <c r="P2" t="n">
-        <v>56.09128833248546</v>
+        <v>56.09128833248545</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>231.5815766053055</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="K4" t="n">
-        <v>9.432712272353569</v>
+        <v>9.432712272353683</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>16.14737566539975</v>
       </c>
       <c r="P4" t="n">
-        <v>50.86145136451438</v>
+        <v>50.86145136451432</v>
       </c>
     </row>
   </sheetData>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>358.9636030329663</v>
+        <v>240.1417191520508</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>19.76407630253101</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>96.17068186482953</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>117.6593921121076</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>138.1495240731637</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>32.02592069183319</v>
+        <v>122.1691448695066</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344607</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>181.8035404384343</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.8840968279493</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>24.07228381331316</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>171.1978763883403</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27825,7 +27825,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>192.9631211494366</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3739804377579</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27919,7 +27919,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>201.9390274350188</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>181.3310423051082</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28053,10 +28053,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28406,7 +28406,7 @@
         <v>127.8675197323504</v>
       </c>
       <c r="C15" t="n">
-        <v>40.88982649862663</v>
+        <v>127.8675197323504</v>
       </c>
       <c r="D15" t="n">
         <v>127.8675197323504</v>
@@ -28421,13 +28421,13 @@
         <v>127.8675197323504</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>35.27236097774288</v>
       </c>
       <c r="S15" t="n">
         <v>127.8675197323504</v>
@@ -28643,7 +28643,7 @@
         <v>135.8596551626998</v>
       </c>
       <c r="C18" t="n">
-        <v>135.8596551626998</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>135.8596551626998</v>
@@ -28652,7 +28652,7 @@
         <v>135.8596551626998</v>
       </c>
       <c r="F18" t="n">
-        <v>28.19373098982086</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G18" t="n">
         <v>135.8596551626998</v>
@@ -28661,10 +28661,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T18" t="n">
         <v>135.8596551626998</v>
@@ -28709,7 +28709,7 @@
         <v>135.8596551626998</v>
       </c>
       <c r="Y18" t="n">
-        <v>135.8596551626998</v>
+        <v>18.17912101485067</v>
       </c>
     </row>
     <row r="19">
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K20" t="n">
-        <v>15.54855900867027</v>
+        <v>15.54855900867007</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y20" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C21" t="n">
-        <v>68.14450863238118</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D21" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E21" t="n">
-        <v>135.8596551626999</v>
+        <v>2.372086707170268</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28928,25 +28928,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V21" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W21" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X21" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y21" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="M22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="O22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="P22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="23">
@@ -29059,25 +29059,25 @@
         <v>135.8596551626999</v>
       </c>
       <c r="J23" t="n">
-        <v>60.51356883121173</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="M23" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.8596551626999</v>
+        <v>60.51356883121187</v>
       </c>
       <c r="Q23" t="n">
         <v>135.8596551626999</v>
@@ -29117,7 +29117,7 @@
         <v>135.8596551626999</v>
       </c>
       <c r="C24" t="n">
-        <v>99.56875001827176</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="D24" t="n">
         <v>135.8596551626999</v>
@@ -29126,19 +29126,19 @@
         <v>135.8596551626999</v>
       </c>
       <c r="F24" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.8596551626999</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29168,10 +29168,10 @@
         <v>135.8596551626999</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>30.22810810704144</v>
       </c>
     </row>
     <row r="25">
@@ -29232,7 +29232,7 @@
         <v>135.8596551626999</v>
       </c>
       <c r="O25" t="n">
-        <v>135.8596551626992</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="P25" t="n">
         <v>135.8596551626999</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J26" t="n">
-        <v>44.43844038090097</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>32.48915102628843</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="N26" t="n">
-        <v>93.39305278493718</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="R26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="27">
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y27" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="K28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="L28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="M28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="N28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="O28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="P28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="R28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="29">
@@ -29533,28 +29533,28 @@
         <v>135.8596551626999</v>
       </c>
       <c r="J29" t="n">
+        <v>15.54855900866996</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>135.8596551626999</v>
       </c>
-      <c r="K29" t="n">
+      <c r="Q29" t="n">
         <v>135.8596551626999</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>15.54855900867024</v>
       </c>
       <c r="R29" t="n">
         <v>135.8596551626999</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>91.76871955858476</v>
       </c>
       <c r="C30" t="n">
         <v>135.8596551626999</v>
       </c>
       <c r="D30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.8596551626999</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29642,19 +29642,19 @@
         <v>135.8596551626999</v>
       </c>
       <c r="T30" t="n">
-        <v>114.607530943666</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="U30" t="n">
         <v>135.8596551626999</v>
       </c>
       <c r="V30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>135.8596551626999</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="Y30" t="n">
         <v>135.8596551626999</v>
@@ -29782,13 +29782,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>14.29108946181955</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>14.29108946181925</v>
       </c>
       <c r="Q32" t="n">
         <v>136.4883899361251</v>
@@ -29828,10 +29828,10 @@
         <v>136.4883899361251</v>
       </c>
       <c r="C33" t="n">
+        <v>133.2018636824673</v>
+      </c>
+      <c r="D33" t="n">
         <v>136.4883899361251</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>136.4883899361251</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>133.2018636824671</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>136.4883899361251</v>
@@ -29937,10 +29937,10 @@
         <v>136.4883899361251</v>
       </c>
       <c r="M34" t="n">
+        <v>136.4883899361251</v>
+      </c>
+      <c r="N34" t="n">
         <v>121.1945015713885</v>
-      </c>
-      <c r="N34" t="n">
-        <v>136.4883899361251</v>
       </c>
       <c r="O34" t="n">
         <v>136.4883899361251</v>
@@ -30025,10 +30025,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>14.29108946181925</v>
+      </c>
+      <c r="Q35" t="n">
         <v>136.4883899361251</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>14.2910894618195</v>
       </c>
       <c r="R35" t="n">
         <v>136.4883899361251</v>
@@ -30062,31 +30062,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.4883899361251</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>136.4883899361251</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>136.4883899361251</v>
       </c>
       <c r="E36" t="n">
-        <v>133.2018636824671</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="G36" t="n">
         <v>136.4883899361251</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,16 +30113,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>109.6955093090967</v>
+      </c>
+      <c r="U36" t="n">
         <v>136.4883899361251</v>
       </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="W36" t="n">
         <v>136.4883899361251</v>
@@ -30171,7 +30171,7 @@
         <v>136.4883899361251</v>
       </c>
       <c r="L37" t="n">
-        <v>121.1945015713885</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="M37" t="n">
         <v>136.4883899361251</v>
@@ -30180,7 +30180,7 @@
         <v>136.4883899361251</v>
       </c>
       <c r="O37" t="n">
-        <v>136.4883899361251</v>
+        <v>121.1945015713885</v>
       </c>
       <c r="P37" t="n">
         <v>136.4883899361251</v>
@@ -30253,13 +30253,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>14.2910894618193</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>14.2910894618195</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30308,10 +30308,10 @@
         <v>136.4883899361251</v>
       </c>
       <c r="E39" t="n">
+        <v>86.11010659775758</v>
+      </c>
+      <c r="F39" t="n">
         <v>136.4883899361251</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.4883899361251</v>
@@ -30320,10 +30320,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30356,19 +30356,19 @@
         <v>136.4883899361251</v>
       </c>
       <c r="U39" t="n">
-        <v>133.948455008725</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="X39" t="n">
-        <v>136.4883899361251</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>136.4883899361251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30408,10 +30408,10 @@
         <v>136.4883899361251</v>
       </c>
       <c r="L40" t="n">
-        <v>121.1945015713885</v>
+        <v>136.4883899361251</v>
       </c>
       <c r="M40" t="n">
-        <v>136.4883899361251</v>
+        <v>121.1945015713893</v>
       </c>
       <c r="N40" t="n">
         <v>136.4883899361251</v>
@@ -30484,22 +30484,22 @@
         <v>64.71215853626013</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>64.71215853626013</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>29.19431028249418</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>29.19431028249418</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>64.71215853626013</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>64.71215853626013</v>
@@ -30694,31 +30694,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="C44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="D44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="E44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="F44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="G44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="H44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="I44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="J44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="R44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="S44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="T44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="U44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="V44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="W44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="X44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="C45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="D45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="E45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="F45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="G45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="H45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="I45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="S45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="T45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="U45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="V45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="W45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="X45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="C46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="D46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="E46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="F46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="G46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="H46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="I46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="J46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="K46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="L46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="M46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="N46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="O46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="P46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="S46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="T46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="U46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="V46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="W46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="X46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.620870203774672</v>
+        <v>8.620870203774686</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>144.5450701788204</v>
       </c>
       <c r="M2" t="n">
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>170.5841314137509</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,13 +34781,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>231.5815766053055</v>
+        <v>142.6941625687921</v>
       </c>
       <c r="M3" t="n">
-        <v>231.5815766053055</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="N3" t="n">
-        <v>72.59864891896454</v>
+        <v>231.5815766053054</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
@@ -35738,7 +35738,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>207.4470693389108</v>
+        <v>257.1616645430588</v>
       </c>
       <c r="N18" t="n">
         <v>257.1616645430588</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>74.92768158991737</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>123.9103658080873</v>
       </c>
       <c r="K20" t="n">
-        <v>119.6041205348545</v>
+        <v>119.6041205348543</v>
       </c>
       <c r="L20" t="n">
         <v>181.8947995804632</v>
@@ -36203,22 +36203,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>308.0231159075732</v>
+        <v>279.1502215562722</v>
       </c>
       <c r="N21" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="O21" t="n">
-        <v>244.6910898328337</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.50047504602708</v>
+        <v>42.50047504602705</v>
       </c>
       <c r="K22" t="n">
         <v>113.590163336817</v>
@@ -36297,7 +36297,7 @@
         <v>133.1382144275933</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.69761191100547</v>
+        <v>49.69761191100544</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>48.56427947659921</v>
+        <v>123.9103658080873</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>239.915216688884</v>
       </c>
       <c r="L23" t="n">
-        <v>181.8947995804632</v>
+        <v>317.754454743163</v>
       </c>
       <c r="M23" t="n">
-        <v>355.0269554282596</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>286.5616250037585</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>226.425367578913</v>
+        <v>151.079281247425</v>
       </c>
       <c r="Q23" t="n">
         <v>125.868955948155</v>
@@ -36528,7 +36528,7 @@
         <v>179.9918275419284</v>
       </c>
       <c r="O25" t="n">
-        <v>160.4447830767388</v>
+        <v>160.4447830767395</v>
       </c>
       <c r="P25" t="n">
         <v>133.1382144275933</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>32.48915102628845</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>181.8947995804632</v>
+        <v>214.3839506067516</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>312.5603530504969</v>
       </c>
       <c r="N26" t="n">
-        <v>301.3269136003304</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36613,7 +36613,7 @@
         <v>183.9587652011503</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.40235357039238</v>
+        <v>83.40235357039239</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,7 +36683,7 @@
         <v>317.4558281799268</v>
       </c>
       <c r="N27" t="n">
-        <v>271.5005848500234</v>
+        <v>74.78127316197639</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03387266826440793</v>
+        <v>0.03387266826442215</v>
       </c>
       <c r="K28" t="n">
-        <v>71.12356095905433</v>
+        <v>71.12356095905434</v>
       </c>
       <c r="L28" t="n">
         <v>120.9830780452533</v>
@@ -36768,10 +36768,10 @@
         <v>117.9781806989769</v>
       </c>
       <c r="P28" t="n">
-        <v>90.67161204983067</v>
+        <v>90.67161204983069</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.231009533242798</v>
+        <v>7.231009533242812</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9103658080873</v>
+        <v>3.59926965405744</v>
       </c>
       <c r="K29" t="n">
-        <v>239.915216688884</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
@@ -36847,10 +36847,10 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>226.425367578913</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.55785979412544</v>
+        <v>125.868955948155</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>167.8464173367462</v>
       </c>
       <c r="M30" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="N30" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>120.0488130387683</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37078,13 +37078,13 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>222.2249502772128</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>104.8568018780324</v>
       </c>
       <c r="Q32" t="n">
         <v>126.4976907215803</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>120.0488130387681</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="N33" t="n">
-        <v>46.86425603268741</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>164.0784151964413</v>
       </c>
       <c r="M34" t="n">
-        <v>160.778378533229</v>
+        <v>176.0722668979657</v>
       </c>
       <c r="N34" t="n">
-        <v>180.6205623153537</v>
+        <v>165.326673950617</v>
       </c>
       <c r="O34" t="n">
         <v>161.0735178501648</v>
@@ -37321,10 +37321,10 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>227.0541023523382</v>
+        <v>104.8568018780324</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.300390247274691</v>
+        <v>126.4976907215803</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>116.7310129956189</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="N36" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>41.22261929852665</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>114.2188981102423</v>
       </c>
       <c r="L37" t="n">
-        <v>148.7845268317046</v>
+        <v>164.0784151964413</v>
       </c>
       <c r="M37" t="n">
         <v>176.0722668979657</v>
@@ -37476,7 +37476,7 @@
         <v>180.6205623153537</v>
       </c>
       <c r="O37" t="n">
-        <v>161.0735178501648</v>
+        <v>145.7796294854282</v>
       </c>
       <c r="P37" t="n">
         <v>133.7669492010186</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>233.4583897273791</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>164.9930593028781</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="N39" t="n">
-        <v>308.0231159075732</v>
+        <v>308.0231159075731</v>
       </c>
       <c r="O39" t="n">
-        <v>116.731012995619</v>
+        <v>60.20272860722675</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.12920981945237</v>
+        <v>43.12920981945234</v>
       </c>
       <c r="K40" t="n">
         <v>114.2188981102423</v>
       </c>
       <c r="L40" t="n">
-        <v>148.7845268317046</v>
+        <v>164.0784151964413</v>
       </c>
       <c r="M40" t="n">
-        <v>176.0722668979657</v>
+        <v>160.7783785332298</v>
       </c>
       <c r="N40" t="n">
         <v>180.6205623153537</v>
@@ -37719,7 +37719,7 @@
         <v>133.7669492010186</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.32634668443076</v>
+        <v>50.32634668443073</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>52.76286918164762</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>168.7677200624443</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>211.0891098629574</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>237.1281710978874</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>155.2778709524732</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>54.72145932171533</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>136.2040852247509</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8757402421734</v>
+        <v>195.7938599433392</v>
       </c>
       <c r="N42" t="n">
         <v>291.8757402421734</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,19 +38178,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>36.21089546409081</v>
+        <v>36.21089546409083</v>
       </c>
       <c r="M46" t="n">
-        <v>48.20474716561526</v>
+        <v>48.20474716561527</v>
       </c>
       <c r="N46" t="n">
-        <v>52.75304258300326</v>
+        <v>52.75304258300328</v>
       </c>
       <c r="O46" t="n">
-        <v>33.20599811781435</v>
+        <v>33.20599811781436</v>
       </c>
       <c r="P46" t="n">
-        <v>5.89942946866816</v>
+        <v>5.899429468668174</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
